--- a/Impfquotenmonitoring/raw_data/RKI_COVID19_Impfquotenmonitoring_2021-05-18.xlsx
+++ b/Impfquotenmonitoring/raw_data/RKI_COVID19_Impfquotenmonitoring_2021-05-18.xlsx
@@ -5,29 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677F8425-B156-46BA-B5FA-629CD5652167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2392CB34-8B0F-4B83-A1FF-2E5773A7EE3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_16.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_16.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_17.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_17.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_16.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_16.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_17.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_17.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
   <si>
     <t>Bayern</t>
   </si>
@@ -248,16 +248,10 @@
     <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
   </si>
   <si>
-    <t>Datenstand: 17.05.2021, 08:00 Uhr</t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 16.05.21 (Impfquote_bis_einschl_16.05.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 16.05.21 durchgeführt und bis zum 17.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 16.05.21 (Impfstoff_bis_einschl_16.05.21)</t>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 17.05.21 (Impfquote_bis_einschl_17.05.21)</t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 17.05.21 (Impfstoff_bis_einschl_17.05.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -275,7 +269,16 @@
     <t>Gesamtzahl verabreichter Impfstoffdosen</t>
   </si>
   <si>
-    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2.308 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2308 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+  </si>
+  <si>
+    <t>Datenstand: 18.05.2021, 13:00 Uhr</t>
+  </si>
+  <si>
+    <t>HINWEIS: Aufgrund technischer Probleme beim Abruf der Daten von der Bdr könnten die berichteten Daten für den 17.05.2021 in einigen Bundesländer unvollständig sein.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 17.05.21 durchgeführt und bis zum 18.05.21, 13:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +374,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -557,7 +566,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -710,22 +719,31 @@
     <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -747,6 +765,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -758,24 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1127,7 +1145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1147,7 +1165,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1159,12 +1177,12 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,7 +1200,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1246,9 +1264,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
@@ -1274,102 +1292,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76" t="s">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="77" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78" t="s">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78" t="s">
+      <c r="O2" s="81"/>
+      <c r="P2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78" t="s">
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="78"/>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1421,55 +1439,55 @@
         <v>69</v>
       </c>
       <c r="C5" s="32">
-        <v>5268410</v>
+        <v>5341747</v>
       </c>
       <c r="D5" s="32">
-        <v>4028069</v>
+        <v>4069059</v>
       </c>
       <c r="E5" s="32">
-        <v>1240341</v>
+        <v>1272688</v>
       </c>
       <c r="F5" s="33">
-        <v>36.287621862791539</v>
+        <v>36.656888034785077</v>
       </c>
       <c r="G5" s="33">
-        <v>22.964233797347607</v>
+        <v>23.40708818374009</v>
       </c>
       <c r="H5" s="33">
-        <v>72.741495130692584</v>
+        <v>72.985429606139647</v>
       </c>
       <c r="I5" s="33">
-        <v>11.173846622020804</v>
+        <v>11.465250692903332</v>
       </c>
       <c r="J5" s="33">
-        <v>5.6068356943937561</v>
+        <v>5.8295443092188677</v>
       </c>
       <c r="K5" s="33">
-        <v>25.860070070848224</v>
+        <v>26.263500164856818</v>
       </c>
       <c r="L5" s="32">
-        <v>1416794</v>
+        <v>1441334</v>
       </c>
       <c r="M5" s="32">
-        <v>1491608</v>
+        <v>1494999</v>
       </c>
       <c r="N5" s="32">
-        <v>416748</v>
+        <v>433387</v>
       </c>
       <c r="O5" s="32">
-        <v>703522</v>
+        <v>713557</v>
       </c>
       <c r="P5" s="34">
-        <v>446980</v>
+        <v>458382</v>
       </c>
       <c r="Q5" s="34">
-        <v>679295</v>
+        <v>683184</v>
       </c>
       <c r="R5" s="34">
-        <v>38302</v>
+        <v>39738</v>
       </c>
       <c r="S5" s="34">
-        <v>68248</v>
+        <v>70253</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1480,55 +1498,55 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>6368489</v>
+        <v>6457956</v>
       </c>
       <c r="D6" s="13">
-        <v>4990668</v>
+        <v>5054287</v>
       </c>
       <c r="E6" s="13">
-        <v>1377821</v>
+        <v>1403669</v>
       </c>
       <c r="F6" s="14">
-        <v>38.024899089406517</v>
+        <v>38.509624992866527</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I6" s="14">
-        <v>10.497894167326933</v>
+        <v>10.694835256508378</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P6" s="17">
-        <v>708809</v>
+        <v>724591</v>
       </c>
       <c r="Q6" s="18">
-        <v>847550</v>
+        <v>852954</v>
       </c>
       <c r="R6" s="17">
-        <v>42490</v>
+        <v>45001</v>
       </c>
       <c r="S6" s="18">
-        <v>49908</v>
+        <v>52873</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1539,55 +1557,55 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1703655</v>
+        <v>1727815</v>
       </c>
       <c r="D7" s="37">
-        <v>1239382</v>
+        <v>1254453</v>
       </c>
       <c r="E7" s="37">
-        <v>464273</v>
+        <v>473362</v>
       </c>
       <c r="F7" s="38">
-        <v>33.775311071753549</v>
+        <v>34.186021985065501</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I7" s="38">
-        <v>12.652245229651744</v>
+        <v>12.899936258189488</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P7" s="41">
-        <v>268180</v>
+        <v>274296</v>
       </c>
       <c r="Q7" s="41">
-        <v>123572</v>
+        <v>124658</v>
       </c>
       <c r="R7" s="41">
-        <v>19856</v>
+        <v>21095</v>
       </c>
       <c r="S7" s="41">
-        <v>12040</v>
+        <v>12735</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1598,55 +1616,55 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>1114386</v>
+        <v>1129240</v>
       </c>
       <c r="D8" s="13">
-        <v>812627</v>
+        <v>821037</v>
       </c>
       <c r="E8" s="13">
-        <v>301759</v>
+        <v>308203</v>
       </c>
       <c r="F8" s="14">
-        <v>32.222897640780161</v>
+        <v>32.556377292771735</v>
       </c>
       <c r="G8" s="44">
-        <v>17.933440182128091</v>
+        <v>18.232865293014775</v>
       </c>
       <c r="H8" s="44">
-        <v>60.473345886630739</v>
+        <v>60.883732898537133</v>
       </c>
       <c r="I8" s="44">
-        <v>11.965575066031747</v>
+        <v>12.221097405797947</v>
       </c>
       <c r="J8" s="63">
-        <v>6.0084402265005128</v>
+        <v>6.2036788880152454</v>
       </c>
       <c r="K8" s="44">
-        <v>23.953471034829388</v>
+        <v>24.323817356737294</v>
       </c>
       <c r="L8" s="17">
-        <v>202318</v>
+        <v>204233</v>
       </c>
       <c r="M8" s="18">
-        <v>299691</v>
+        <v>300663</v>
       </c>
       <c r="N8" s="17">
-        <v>87447</v>
+        <v>90214</v>
       </c>
       <c r="O8" s="18">
-        <v>170886</v>
+        <v>173528</v>
       </c>
       <c r="P8" s="17">
-        <v>100800</v>
+        <v>103946</v>
       </c>
       <c r="Q8" s="18">
-        <v>203238</v>
+        <v>205679</v>
       </c>
       <c r="R8" s="17">
-        <v>14110</v>
+        <v>14643</v>
       </c>
       <c r="S8" s="18">
-        <v>28324</v>
+        <v>28762</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1657,55 +1675,55 @@
         <v>68</v>
       </c>
       <c r="C9" s="37">
-        <v>357057</v>
+        <v>361568</v>
       </c>
       <c r="D9" s="37">
-        <v>257581</v>
+        <v>259328</v>
       </c>
       <c r="E9" s="37">
-        <v>99476</v>
+        <v>102240</v>
       </c>
       <c r="F9" s="38">
-        <v>37.812719281505345</v>
+        <v>38.069177718209865</v>
       </c>
       <c r="G9" s="64">
-        <v>21.745103109444695</v>
+        <v>21.979038722606504</v>
       </c>
       <c r="H9" s="64">
-        <v>81.390377778016472</v>
+        <v>81.706714502078484</v>
       </c>
       <c r="I9" s="64">
-        <v>14.603010560744096</v>
+        <v>15.008763920246857</v>
       </c>
       <c r="J9" s="64">
-        <v>5.4869820285732755</v>
+        <v>5.7421294201305839</v>
       </c>
       <c r="K9" s="64">
-        <v>37.977593262940808</v>
+        <v>38.783741688776225</v>
       </c>
       <c r="L9" s="42">
-        <v>73112</v>
+        <v>73558</v>
       </c>
       <c r="M9" s="42">
-        <v>121124</v>
+        <v>121525</v>
       </c>
       <c r="N9" s="42">
-        <v>25150</v>
+        <v>26337</v>
       </c>
       <c r="O9" s="42">
-        <v>68401</v>
+        <v>69821</v>
       </c>
       <c r="P9" s="42">
-        <v>34528</v>
+        <v>35240</v>
       </c>
       <c r="Q9" s="42">
-        <v>30420</v>
+        <v>30608</v>
       </c>
       <c r="R9" s="42">
-        <v>2011</v>
+        <v>2087</v>
       </c>
       <c r="S9" s="42">
-        <v>2311</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1716,55 +1734,55 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>854467</v>
+        <v>869413</v>
       </c>
       <c r="D10" s="13">
-        <v>665343</v>
+        <v>673581</v>
       </c>
       <c r="E10" s="13">
-        <v>189124</v>
+        <v>195832</v>
       </c>
       <c r="F10" s="14">
-        <v>36.017968302122121</v>
+        <v>36.463927788992628</v>
       </c>
       <c r="G10" s="44">
-        <v>24.957432504157673</v>
+        <v>25.452177913025015</v>
       </c>
       <c r="H10" s="44">
-        <v>72.034509204220143</v>
+        <v>72.321702061017547</v>
       </c>
       <c r="I10" s="44">
-        <v>10.23812114528979</v>
+        <v>10.601254944504083</v>
       </c>
       <c r="J10" s="44">
-        <v>6.1009164573086583</v>
+        <v>6.3740844273026429</v>
       </c>
       <c r="K10" s="44">
-        <v>23.448479167578299</v>
+        <v>24.104393567064253</v>
       </c>
       <c r="L10" s="18">
-        <v>274020</v>
+        <v>278948</v>
       </c>
       <c r="M10" s="18">
-        <v>224047</v>
+        <v>224597</v>
       </c>
       <c r="N10" s="18">
-        <v>81811</v>
+        <v>85375</v>
       </c>
       <c r="O10" s="18">
-        <v>96604</v>
+        <v>99284</v>
       </c>
       <c r="P10" s="18">
-        <v>78641</v>
+        <v>80704</v>
       </c>
       <c r="Q10" s="18">
-        <v>88729</v>
+        <v>89426</v>
       </c>
       <c r="R10" s="18">
-        <v>4398</v>
+        <v>4694</v>
       </c>
       <c r="S10" s="18">
-        <v>5210</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1775,55 +1793,55 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>2967320</v>
+        <v>3004509</v>
       </c>
       <c r="D11" s="37">
-        <v>2328258</v>
+        <v>2354911</v>
       </c>
       <c r="E11" s="37">
-        <v>639062</v>
+        <v>649598</v>
       </c>
       <c r="F11" s="38">
-        <v>37.026532741313723</v>
+        <v>37.450398213763187</v>
       </c>
       <c r="G11" s="64">
-        <v>24.140284499527059</v>
+        <v>24.559653112528427</v>
       </c>
       <c r="H11" s="64">
-        <v>71.320872099932203</v>
+        <v>71.756712359409192</v>
       </c>
       <c r="I11" s="64">
-        <v>10.16307044439638</v>
+        <v>10.330625564560247</v>
       </c>
       <c r="J11" s="64">
-        <v>4.5586293552341566</v>
+        <v>4.7116898207899727</v>
       </c>
       <c r="K11" s="64">
-        <v>25.086154469896616</v>
+        <v>25.292307728154977</v>
       </c>
       <c r="L11" s="41">
-        <v>815336</v>
+        <v>828696</v>
       </c>
       <c r="M11" s="41">
-        <v>869675</v>
+        <v>874666</v>
       </c>
       <c r="N11" s="41">
-        <v>189134</v>
+        <v>195024</v>
       </c>
       <c r="O11" s="41">
-        <v>406211</v>
+        <v>408686</v>
       </c>
       <c r="P11" s="41">
-        <v>288212</v>
+        <v>294023</v>
       </c>
       <c r="Q11" s="41">
-        <v>354679</v>
+        <v>357170</v>
       </c>
       <c r="R11" s="41">
-        <v>19259</v>
+        <v>20366</v>
       </c>
       <c r="S11" s="41">
-        <v>24439</v>
+        <v>25503</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1834,55 +1852,55 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>794509</v>
+        <v>804440</v>
       </c>
       <c r="D12" s="13">
-        <v>626394</v>
+        <v>633007</v>
       </c>
       <c r="E12" s="13">
-        <v>168115</v>
+        <v>171433</v>
       </c>
       <c r="F12" s="14">
-        <v>38.951507892979329</v>
+        <v>39.362728820536546</v>
       </c>
       <c r="G12" s="44">
-        <v>23.664407072143216</v>
+        <v>24.107541443614551</v>
       </c>
       <c r="H12" s="44">
-        <v>69.189842582169163</v>
+        <v>69.587354900621918</v>
       </c>
       <c r="I12" s="44">
-        <v>10.454015762328856</v>
+        <v>10.660341338865196</v>
       </c>
       <c r="J12" s="44">
-        <v>4.5805557327050987</v>
+        <v>4.7429914430518405</v>
       </c>
       <c r="K12" s="44">
-        <v>21.839924705187592</v>
+        <v>22.083525568863379</v>
       </c>
       <c r="L12" s="18">
-        <v>165724</v>
+        <v>168585</v>
       </c>
       <c r="M12" s="18">
-        <v>222649</v>
+        <v>223719</v>
       </c>
       <c r="N12" s="18">
-        <v>40672</v>
+        <v>41997</v>
       </c>
       <c r="O12" s="18">
-        <v>106290</v>
+        <v>107337</v>
       </c>
       <c r="P12" s="18">
-        <v>86602</v>
+        <v>88466</v>
       </c>
       <c r="Q12" s="18">
-        <v>152270</v>
+        <v>153354</v>
       </c>
       <c r="R12" s="18">
-        <v>8169</v>
+        <v>8576</v>
       </c>
       <c r="S12" s="18">
-        <v>12054</v>
+        <v>12327</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1893,55 +1911,55 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>3817325</v>
+        <v>3860375</v>
       </c>
       <c r="D13" s="37">
-        <v>3049767</v>
+        <v>3081896</v>
       </c>
       <c r="E13" s="37">
-        <v>767558</v>
+        <v>778479</v>
       </c>
       <c r="F13" s="38">
-        <v>38.152571404552241</v>
+        <v>38.554505049534576</v>
       </c>
       <c r="G13" s="64">
-        <v>23.304400084706721</v>
+        <v>23.698131435189236</v>
       </c>
       <c r="H13" s="64">
-        <v>75.22581632639826</v>
+        <v>75.661083754065899</v>
       </c>
       <c r="I13" s="64">
-        <v>9.6021471155453195</v>
+        <v>9.7387687762522255</v>
       </c>
       <c r="J13" s="64">
-        <v>3.4424164159233848</v>
+        <v>3.5395686188702711</v>
       </c>
       <c r="K13" s="64">
-        <v>24.124417218551635</v>
+        <v>24.345963885817856</v>
       </c>
       <c r="L13" s="42">
-        <v>945558</v>
+        <v>959049</v>
       </c>
       <c r="M13" s="42">
-        <v>1199145</v>
+        <v>1204473</v>
       </c>
       <c r="N13" s="42">
-        <v>173121</v>
+        <v>177460</v>
       </c>
       <c r="O13" s="42">
-        <v>532572</v>
+        <v>536405</v>
       </c>
       <c r="P13" s="42">
-        <v>378313</v>
+        <v>387189</v>
       </c>
       <c r="Q13" s="42">
-        <v>540701</v>
+        <v>545440</v>
       </c>
       <c r="R13" s="42">
-        <v>22435</v>
+        <v>23615</v>
       </c>
       <c r="S13" s="42">
-        <v>25385</v>
+        <v>26676</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1952,55 +1970,55 @@
         <v>67</v>
       </c>
       <c r="C14" s="13">
-        <v>8869664</v>
+        <v>9009265</v>
       </c>
       <c r="D14" s="13">
-        <v>7015861</v>
+        <v>7097733</v>
       </c>
       <c r="E14" s="13">
-        <v>1853803</v>
+        <v>1911532</v>
       </c>
       <c r="F14" s="14">
-        <v>39.091628726252381</v>
+        <v>39.547810772486727</v>
       </c>
       <c r="G14" s="44">
-        <v>24.623664747222669</v>
+        <v>25.139108249865288</v>
       </c>
       <c r="H14" s="44">
-        <v>76.449735522467392</v>
+        <v>76.775563554994022</v>
       </c>
       <c r="I14" s="44">
-        <v>10.329192469407939</v>
+        <v>10.650852296297014</v>
       </c>
       <c r="J14" s="44">
-        <v>4.7761388683000279</v>
+        <v>4.9969901843343854</v>
       </c>
       <c r="K14" s="44">
-        <v>24.534920577051309</v>
+        <v>25.093938283727983</v>
       </c>
       <c r="L14" s="18">
-        <v>2118227</v>
+        <v>2155390</v>
       </c>
       <c r="M14" s="18">
-        <v>2639510</v>
+        <v>2646157</v>
       </c>
       <c r="N14" s="18">
-        <v>564400</v>
+        <v>589622</v>
       </c>
       <c r="O14" s="18">
-        <v>1165431</v>
+        <v>1189855</v>
       </c>
       <c r="P14" s="18">
-        <v>1065047</v>
+        <v>1094519</v>
       </c>
       <c r="Q14" s="18">
-        <v>1197899</v>
+        <v>1207607</v>
       </c>
       <c r="R14" s="18">
-        <v>53045</v>
+        <v>56374</v>
       </c>
       <c r="S14" s="18">
-        <v>66104</v>
+        <v>69740</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2011,55 +2029,55 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>1970369</v>
+        <v>1998302</v>
       </c>
       <c r="D15" s="37">
-        <v>1443859</v>
+        <v>1460041</v>
       </c>
       <c r="E15" s="37">
-        <v>526510</v>
+        <v>538261</v>
       </c>
       <c r="F15" s="38">
-        <v>35.268520040655581</v>
+        <v>35.663790763972671</v>
       </c>
       <c r="G15" s="64">
-        <v>20.808862510561454</v>
+        <v>21.187452715053318</v>
       </c>
       <c r="H15" s="64">
-        <v>70.245325199005492</v>
+        <v>70.680985312245369</v>
       </c>
       <c r="I15" s="64">
-        <v>12.86083231576322</v>
+        <v>13.147868916288441</v>
       </c>
       <c r="J15" s="64">
-        <v>6.5377133690075819</v>
+        <v>6.6877826742433033</v>
       </c>
       <c r="K15" s="64">
-        <v>28.171740175083048</v>
+        <v>28.790422664688798</v>
       </c>
       <c r="L15" s="42">
-        <v>434348</v>
+        <v>442151</v>
       </c>
       <c r="M15" s="42">
-        <v>569260</v>
+        <v>572441</v>
       </c>
       <c r="N15" s="42">
-        <v>177071</v>
+        <v>180805</v>
       </c>
       <c r="O15" s="42">
-        <v>314200</v>
+        <v>320514</v>
       </c>
       <c r="P15" s="42">
-        <v>168553</v>
+        <v>171719</v>
       </c>
       <c r="Q15" s="42">
-        <v>271278</v>
+        <v>273310</v>
       </c>
       <c r="R15" s="42">
-        <v>12348</v>
+        <v>12962</v>
       </c>
       <c r="S15" s="42">
-        <v>22896</v>
+        <v>23985</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2070,55 +2088,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>523240</v>
+        <v>531781</v>
       </c>
       <c r="D16" s="13">
-        <v>408966</v>
+        <v>412538</v>
       </c>
       <c r="E16" s="13">
-        <v>114274</v>
+        <v>119243</v>
       </c>
       <c r="F16" s="14">
-        <v>41.440002756141283</v>
+        <v>41.801948956668802</v>
       </c>
       <c r="G16" s="44">
-        <v>25.903244189966973</v>
+        <v>26.298735204518529</v>
       </c>
       <c r="H16" s="44">
-        <v>74.336109873934319</v>
+        <v>74.627030680931583</v>
       </c>
       <c r="I16" s="44">
-        <v>11.579238555173998</v>
+        <v>12.082740982503569</v>
       </c>
       <c r="J16" s="44">
-        <v>4.1912201293140745</v>
+        <v>4.4430454150790837</v>
       </c>
       <c r="K16" s="44">
-        <v>27.22210113683386</v>
+        <v>28.258486769578717</v>
       </c>
       <c r="L16" s="18">
-        <v>122197</v>
+        <v>123839</v>
       </c>
       <c r="M16" s="18">
-        <v>173001</v>
+        <v>173540</v>
       </c>
       <c r="N16" s="18">
-        <v>24348</v>
+        <v>25852</v>
       </c>
       <c r="O16" s="18">
-        <v>82082</v>
+        <v>85156</v>
       </c>
       <c r="P16" s="18">
-        <v>51434</v>
+        <v>52443</v>
       </c>
       <c r="Q16" s="18">
-        <v>62333</v>
+        <v>62715</v>
       </c>
       <c r="R16" s="18">
-        <v>3746</v>
+        <v>3930</v>
       </c>
       <c r="S16" s="18">
-        <v>4098</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2129,55 +2147,55 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>1912294</v>
+        <v>1940685</v>
       </c>
       <c r="D17" s="37">
-        <v>1302149</v>
+        <v>1318612</v>
       </c>
       <c r="E17" s="37">
-        <v>610145</v>
+        <v>622073</v>
       </c>
       <c r="F17" s="38">
-        <v>31.978346604138391</v>
+        <v>32.382647125925011</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I17" s="64">
-        <v>14.984021251624826</v>
+        <v>15.276950646259513</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K17" s="64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N17" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P17" s="41">
-        <v>102525</v>
+        <v>104639</v>
       </c>
       <c r="Q17" s="41">
-        <v>269655</v>
+        <v>272287</v>
       </c>
       <c r="R17" s="41">
-        <v>17491</v>
+        <v>18186</v>
       </c>
       <c r="S17" s="41">
-        <v>49304</v>
+        <v>50430</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2188,55 +2206,55 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>1024732</v>
+        <v>1039470</v>
       </c>
       <c r="D18" s="13">
-        <v>776296</v>
+        <v>785040</v>
       </c>
       <c r="E18" s="13">
-        <v>248436</v>
+        <v>254430</v>
       </c>
       <c r="F18" s="14">
-        <v>35.37007320089193</v>
+        <v>35.768472677468651</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I18" s="44">
-        <v>11.319392996662083</v>
+        <v>11.592495291104083</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L18" s="63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P18" s="17">
-        <v>66757</v>
+        <v>68184</v>
       </c>
       <c r="Q18" s="18">
-        <v>164856</v>
+        <v>166165</v>
       </c>
       <c r="R18" s="17">
-        <v>5505</v>
+        <v>5697</v>
       </c>
       <c r="S18" s="18">
-        <v>11777</v>
+        <v>12069</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2247,55 +2265,55 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1396932</v>
+        <v>1419044</v>
       </c>
       <c r="D19" s="37">
-        <v>1002124</v>
+        <v>1014093</v>
       </c>
       <c r="E19" s="37">
-        <v>394808</v>
+        <v>404951</v>
       </c>
       <c r="F19" s="38">
-        <v>34.511099869032464</v>
+        <v>34.923287736334764</v>
       </c>
       <c r="G19" s="64">
-        <v>20.021466581952556</v>
+        <v>20.380486818084957</v>
       </c>
       <c r="H19" s="64">
-        <v>68.541111427612591</v>
+        <v>69.181277310265372</v>
       </c>
       <c r="I19" s="64">
-        <v>13.596379606808107</v>
+        <v>13.945683770735522</v>
       </c>
       <c r="J19" s="64">
-        <v>7.2094720065362106</v>
+        <v>7.5071661656815545</v>
       </c>
       <c r="K19" s="64">
-        <v>28.597112968346906</v>
+        <v>28.964536586097179</v>
       </c>
       <c r="L19" s="42">
-        <v>286137</v>
+        <v>290722</v>
       </c>
       <c r="M19" s="42">
-        <v>375344</v>
+        <v>378261</v>
       </c>
       <c r="N19" s="42">
-        <v>138154</v>
+        <v>144019</v>
       </c>
       <c r="O19" s="42">
-        <v>231298</v>
+        <v>234064</v>
       </c>
       <c r="P19" s="42">
-        <v>121631</v>
+        <v>124358</v>
       </c>
       <c r="Q19" s="42">
-        <v>218989</v>
+        <v>221623</v>
       </c>
       <c r="R19" s="42">
-        <v>8678</v>
+        <v>8876</v>
       </c>
       <c r="S19" s="42">
-        <v>16673</v>
+        <v>17093</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2306,55 +2324,55 @@
         <v>70</v>
       </c>
       <c r="C20" s="13">
-        <v>1041879</v>
+        <v>1052672</v>
       </c>
       <c r="D20" s="13">
-        <v>719375</v>
+        <v>726813</v>
       </c>
       <c r="E20" s="13">
-        <v>322504</v>
+        <v>325859</v>
       </c>
       <c r="F20" s="14">
-        <v>33.719997112560456</v>
+        <v>34.068646062723062</v>
       </c>
       <c r="G20" s="44">
-        <v>19.297295216697723</v>
+        <v>19.640436175354012</v>
       </c>
       <c r="H20" s="44">
-        <v>61.42847755374725</v>
+        <v>61.796193062963411</v>
       </c>
       <c r="I20" s="44">
-        <v>15.117058486587936</v>
+        <v>15.274320818907855</v>
       </c>
       <c r="J20" s="44">
-        <v>7.6022758214640591</v>
+        <v>7.7121892735305311</v>
       </c>
       <c r="K20" s="44">
-        <v>29.541957352667374</v>
+        <v>29.78167062766272</v>
       </c>
       <c r="L20" s="18">
-        <v>214203</v>
+        <v>217907</v>
       </c>
       <c r="M20" s="18">
-        <v>303917</v>
+        <v>305510</v>
       </c>
       <c r="N20" s="18">
-        <v>98974</v>
+        <v>100044</v>
       </c>
       <c r="O20" s="18">
-        <v>198334</v>
+        <v>199565</v>
       </c>
       <c r="P20" s="18">
-        <v>56523</v>
+        <v>57633</v>
       </c>
       <c r="Q20" s="18">
-        <v>144791</v>
+        <v>145884</v>
       </c>
       <c r="R20" s="18">
-        <v>7680</v>
+        <v>8152</v>
       </c>
       <c r="S20" s="18">
-        <v>17457</v>
+        <v>17977</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2363,55 +2381,55 @@
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>90664</v>
+        <v>94323</v>
       </c>
       <c r="D21" s="37">
-        <v>76513</v>
+        <v>78155</v>
       </c>
       <c r="E21" s="37">
-        <v>14151</v>
+        <v>16168</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K21" s="65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L21" s="41">
-        <v>71796</v>
+        <v>73912</v>
       </c>
       <c r="M21" s="41">
-        <v>6556</v>
+        <v>6654</v>
       </c>
       <c r="N21" s="41">
-        <v>11532</v>
+        <v>12901</v>
       </c>
       <c r="O21" s="41">
-        <v>780</v>
+        <v>856</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R21" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S21" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2420,55 +2438,55 @@
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>40075392</v>
+        <v>40642605</v>
       </c>
       <c r="D22" s="21">
-        <v>30743232</v>
+        <v>31094584</v>
       </c>
       <c r="E22" s="21">
-        <v>9332160</v>
+        <v>9548021</v>
       </c>
       <c r="F22" s="22">
-        <v>36.965790314829214</v>
+        <v>37.388257424295638</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I22" s="22">
-        <v>11.22102808658623</v>
+        <v>11.48058025283698</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P22" s="25">
-        <v>4023535</v>
+        <v>4120332</v>
       </c>
       <c r="Q22" s="25">
-        <v>5350255</v>
+        <v>5392064</v>
       </c>
       <c r="R22" s="25">
-        <v>279523</v>
+        <v>293992</v>
       </c>
       <c r="S22" s="25">
-        <v>416228</v>
+        <v>432498</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2496,27 +2514,27 @@
       <c r="T25" s="59"/>
     </row>
     <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
@@ -2567,54 +2585,37 @@
       <c r="U28" s="61"/>
     </row>
     <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="75"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2642,7 +2643,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36246FF8-D917-43A6-8C76-62F6D1CA6D2E}">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
@@ -2655,118 +2656,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="79" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="81"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="90"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="82" t="s">
+      <c r="A2" s="83"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="79" t="s">
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82" t="s">
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="79" t="s">
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="81"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="90"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="82" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="82" t="s">
+      <c r="M3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82" t="s">
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="79" t="s">
+      <c r="S3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82" t="s">
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="91" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="88"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2779,7 +2780,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="82"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2795,7 +2796,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="82"/>
+      <c r="M4" s="91"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2808,7 +2809,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="82"/>
+      <c r="R4" s="91"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2825,7 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="82"/>
+      <c r="X4" s="91"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
@@ -2834,70 +2835,70 @@
         <v>69</v>
       </c>
       <c r="C5" s="45">
-        <v>2894879</v>
+        <v>2920578</v>
       </c>
       <c r="D5" s="45">
-        <v>1823941</v>
+        <v>1843162</v>
       </c>
       <c r="E5" s="45">
-        <v>291098</v>
+        <v>297167</v>
       </c>
       <c r="F5" s="45">
-        <v>779840</v>
+        <v>780249</v>
       </c>
       <c r="G5" s="45">
-        <v>22088</v>
+        <v>25458</v>
       </c>
       <c r="H5" s="45">
-        <v>1133793</v>
+        <v>1162699</v>
       </c>
       <c r="I5" s="45">
-        <v>974533</v>
+        <v>988950</v>
       </c>
       <c r="J5" s="45">
-        <v>81924</v>
+        <v>88954</v>
       </c>
       <c r="K5" s="45">
-        <v>63805</v>
+        <v>69032</v>
       </c>
       <c r="L5" s="45">
-        <v>13531</v>
+        <v>15763</v>
       </c>
       <c r="M5" s="45">
-        <v>24285</v>
+        <v>28544</v>
       </c>
       <c r="N5" s="45">
-        <v>1133190</v>
+        <v>1148481</v>
       </c>
       <c r="O5" s="45">
-        <v>952156</v>
+        <v>958283</v>
       </c>
       <c r="P5" s="45">
         <v>316</v>
       </c>
       <c r="Q5" s="45">
-        <v>180718</v>
+        <v>189882</v>
       </c>
       <c r="R5" s="45">
-        <v>2639</v>
+        <v>15291</v>
       </c>
       <c r="S5" s="45">
-        <v>106548</v>
+        <v>109989</v>
       </c>
       <c r="T5" s="45">
-        <v>102826</v>
+        <v>105806</v>
       </c>
       <c r="U5" s="45">
         <v>43</v>
       </c>
       <c r="V5" s="45">
-        <v>3650</v>
+        <v>4093</v>
       </c>
       <c r="W5" s="45">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="X5" s="45">
-        <v>861</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2908,70 +2909,70 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3434002</v>
+        <v>3476435</v>
       </c>
       <c r="D6" s="46">
-        <v>2379736</v>
+        <v>2410968</v>
       </c>
       <c r="E6" s="46">
-        <v>329488</v>
+        <v>340373</v>
       </c>
       <c r="F6" s="46">
-        <v>724778</v>
+        <v>725094</v>
       </c>
       <c r="G6" s="46">
-        <v>32251</v>
+        <v>42433</v>
       </c>
       <c r="H6" s="46">
-        <v>1285424</v>
+        <v>1305796</v>
       </c>
       <c r="I6" s="46">
-        <v>1127925</v>
+        <v>1143594</v>
       </c>
       <c r="J6" s="46">
-        <v>100937</v>
+        <v>103761</v>
       </c>
       <c r="K6" s="46">
-        <v>53874</v>
+        <v>55207</v>
       </c>
       <c r="L6" s="46">
-        <v>2688</v>
+        <v>3234</v>
       </c>
       <c r="M6" s="46">
-        <v>17424</v>
+        <v>20372</v>
       </c>
       <c r="N6" s="46">
-        <v>1556666</v>
+        <v>1577852</v>
       </c>
       <c r="O6" s="46">
-        <v>1174360</v>
+        <v>1181487</v>
       </c>
       <c r="P6" s="46">
         <v>436</v>
       </c>
       <c r="Q6" s="46">
-        <v>381870</v>
+        <v>395929</v>
       </c>
       <c r="R6" s="46">
-        <v>2099</v>
+        <v>21186</v>
       </c>
       <c r="S6" s="46">
-        <v>92397</v>
+        <v>97873</v>
       </c>
       <c r="T6" s="46">
-        <v>79320</v>
+        <v>83521</v>
       </c>
       <c r="U6" s="46">
         <v>770</v>
       </c>
       <c r="V6" s="46">
-        <v>12307</v>
+        <v>13582</v>
       </c>
       <c r="W6" s="46">
         <v>0</v>
       </c>
       <c r="X6" s="46">
-        <v>74</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2982,70 +2983,70 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>845920</v>
+        <v>853789</v>
       </c>
       <c r="D7" s="45">
-        <v>568808</v>
+        <v>573303</v>
       </c>
       <c r="E7" s="45">
-        <v>91351</v>
+        <v>94722</v>
       </c>
       <c r="F7" s="45">
-        <v>185761</v>
+        <v>185764</v>
       </c>
       <c r="G7" s="45">
-        <v>8331</v>
+        <v>7869</v>
       </c>
       <c r="H7" s="45">
-        <v>432370</v>
+        <v>439525</v>
       </c>
       <c r="I7" s="45">
-        <v>374695</v>
+        <v>381370</v>
       </c>
       <c r="J7" s="45">
-        <v>52526</v>
+        <v>52857</v>
       </c>
       <c r="K7" s="45">
-        <v>1421</v>
+        <v>1570</v>
       </c>
       <c r="L7" s="45">
         <v>3728</v>
       </c>
       <c r="M7" s="45">
-        <v>6482</v>
+        <v>7155</v>
       </c>
       <c r="N7" s="45">
-        <v>393462</v>
+        <v>400664</v>
       </c>
       <c r="O7" s="45">
-        <v>292215</v>
+        <v>295068</v>
       </c>
       <c r="P7" s="45">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="45">
-        <v>101126</v>
+        <v>105472</v>
       </c>
       <c r="R7" s="45">
-        <v>132</v>
+        <v>7202</v>
       </c>
       <c r="S7" s="45">
-        <v>31903</v>
+        <v>33837</v>
       </c>
       <c r="T7" s="45">
-        <v>26788</v>
+        <v>28122</v>
       </c>
       <c r="U7" s="45">
         <v>91</v>
       </c>
       <c r="V7" s="45">
-        <v>5024</v>
+        <v>5624</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>19</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -3056,70 +3057,70 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>501203</v>
+        <v>504026</v>
       </c>
       <c r="D8" s="46">
-        <v>329635</v>
+        <v>332347</v>
       </c>
       <c r="E8" s="46">
-        <v>64874</v>
+        <v>64933</v>
       </c>
       <c r="F8" s="46">
-        <v>106694</v>
+        <v>106746</v>
       </c>
       <c r="G8" s="46">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="H8" s="46">
-        <v>259139</v>
+        <v>264612</v>
       </c>
       <c r="I8" s="46">
-        <v>218237</v>
+        <v>220925</v>
       </c>
       <c r="J8" s="46">
-        <v>27073</v>
+        <v>28756</v>
       </c>
       <c r="K8" s="46">
-        <v>13023</v>
+        <v>14061</v>
       </c>
       <c r="L8" s="46">
-        <v>806</v>
+        <v>870</v>
       </c>
       <c r="M8" s="46">
-        <v>0</v>
+        <v>5336</v>
       </c>
       <c r="N8" s="46">
-        <v>311424</v>
+        <v>317011</v>
       </c>
       <c r="O8" s="46">
-        <v>222237</v>
+        <v>223932</v>
       </c>
       <c r="P8" s="46">
         <v>576</v>
       </c>
       <c r="Q8" s="46">
-        <v>88611</v>
+        <v>92503</v>
       </c>
       <c r="R8" s="46">
-        <v>358</v>
+        <v>5587</v>
       </c>
       <c r="S8" s="46">
-        <v>42620</v>
+        <v>43591</v>
       </c>
       <c r="T8" s="46">
-        <v>39639</v>
+        <v>40184</v>
       </c>
       <c r="U8" s="46">
         <v>58</v>
       </c>
       <c r="V8" s="46">
-        <v>2923</v>
+        <v>3349</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>62</v>
+        <v>971</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -3130,70 +3131,70 @@
         <v>68</v>
       </c>
       <c r="C9" s="45">
-        <v>192633</v>
+        <v>193480</v>
       </c>
       <c r="D9" s="45">
-        <v>117456</v>
+        <v>117998</v>
       </c>
       <c r="E9" s="45">
-        <v>13512</v>
+        <v>13522</v>
       </c>
       <c r="F9" s="45">
-        <v>61665</v>
+        <v>61960</v>
       </c>
       <c r="G9" s="45">
-        <v>602</v>
+        <v>851</v>
       </c>
       <c r="H9" s="45">
-        <v>95154</v>
+        <v>97761</v>
       </c>
       <c r="I9" s="45">
-        <v>85455</v>
+        <v>87319</v>
       </c>
       <c r="J9" s="45">
-        <v>5864</v>
+        <v>6326</v>
       </c>
       <c r="K9" s="45">
-        <v>2230</v>
+        <v>2511</v>
       </c>
       <c r="L9" s="45">
         <v>1605</v>
       </c>
       <c r="M9" s="45">
-        <v>948</v>
+        <v>2609</v>
       </c>
       <c r="N9" s="45">
-        <v>64948</v>
+        <v>65848</v>
       </c>
       <c r="O9" s="45">
-        <v>53343</v>
+        <v>53559</v>
       </c>
       <c r="P9" s="45">
         <v>14</v>
       </c>
       <c r="Q9" s="45">
-        <v>11591</v>
+        <v>12275</v>
       </c>
       <c r="R9" s="45">
-        <v>225</v>
+        <v>900</v>
       </c>
       <c r="S9" s="45">
-        <v>4322</v>
+        <v>4479</v>
       </c>
       <c r="T9" s="45">
-        <v>4107</v>
+        <v>4254</v>
       </c>
       <c r="U9" s="45">
         <v>18</v>
       </c>
       <c r="V9" s="45">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3204,70 +3205,70 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>496960</v>
+        <v>502438</v>
       </c>
       <c r="D10" s="46">
-        <v>322080</v>
+        <v>323208</v>
       </c>
       <c r="E10" s="46">
-        <v>54440</v>
+        <v>58781</v>
       </c>
       <c r="F10" s="46">
-        <v>120440</v>
+        <v>120449</v>
       </c>
       <c r="G10" s="46">
-        <v>3211</v>
+        <v>5305</v>
       </c>
       <c r="H10" s="46">
-        <v>179522</v>
+        <v>185766</v>
       </c>
       <c r="I10" s="46">
-        <v>163115</v>
+        <v>168648</v>
       </c>
       <c r="J10" s="46">
-        <v>13011</v>
+        <v>13601</v>
       </c>
       <c r="K10" s="46">
-        <v>2288</v>
+        <v>2409</v>
       </c>
       <c r="L10" s="46">
         <v>1108</v>
       </c>
       <c r="M10" s="46">
-        <v>3093</v>
+        <v>6238</v>
       </c>
       <c r="N10" s="46">
-        <v>168383</v>
+        <v>171143</v>
       </c>
       <c r="O10" s="46">
-        <v>136874</v>
+        <v>138212</v>
       </c>
       <c r="P10" s="46">
-        <v>2122</v>
+        <v>2381</v>
       </c>
       <c r="Q10" s="46">
-        <v>29387</v>
+        <v>30550</v>
       </c>
       <c r="R10" s="46">
-        <v>204</v>
+        <v>2760</v>
       </c>
       <c r="S10" s="46">
-        <v>9602</v>
+        <v>10066</v>
       </c>
       <c r="T10" s="46">
-        <v>8845</v>
+        <v>9207</v>
       </c>
       <c r="U10" s="46">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="V10" s="46">
-        <v>741</v>
+        <v>838</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>10</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3278,70 +3279,70 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1685011</v>
+        <v>1703362</v>
       </c>
       <c r="D11" s="45">
-        <v>1040225</v>
+        <v>1054258</v>
       </c>
       <c r="E11" s="45">
-        <v>178812</v>
+        <v>182873</v>
       </c>
       <c r="F11" s="45">
-        <v>465974</v>
+        <v>466231</v>
       </c>
       <c r="G11" s="45">
-        <v>15104</v>
+        <v>17986</v>
       </c>
       <c r="H11" s="45">
-        <v>595345</v>
+        <v>603710</v>
       </c>
       <c r="I11" s="45">
-        <v>525737</v>
+        <v>530142</v>
       </c>
       <c r="J11" s="45">
-        <v>33669</v>
+        <v>34997</v>
       </c>
       <c r="K11" s="45">
-        <v>35939</v>
+        <v>38571</v>
       </c>
       <c r="L11" s="45">
         <v>0</v>
       </c>
       <c r="M11" s="45">
-        <v>10378</v>
+        <v>8305</v>
       </c>
       <c r="N11" s="45">
-        <v>643247</v>
+        <v>651549</v>
       </c>
       <c r="O11" s="45">
-        <v>510158</v>
+        <v>513756</v>
       </c>
       <c r="P11" s="45">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="45">
-        <v>132933</v>
+        <v>137630</v>
       </c>
       <c r="R11" s="45">
-        <v>718</v>
+        <v>8302</v>
       </c>
       <c r="S11" s="45">
-        <v>43717</v>
+        <v>45888</v>
       </c>
       <c r="T11" s="45">
-        <v>40015</v>
+        <v>41821</v>
       </c>
       <c r="U11" s="45">
         <v>126</v>
       </c>
       <c r="V11" s="45">
-        <v>3533</v>
+        <v>3898</v>
       </c>
       <c r="W11" s="45">
         <v>43</v>
       </c>
       <c r="X11" s="45">
-        <v>74</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3352,70 +3353,70 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>387444</v>
+        <v>391109</v>
       </c>
       <c r="D12" s="46">
-        <v>277900</v>
+        <v>279646</v>
       </c>
       <c r="E12" s="46">
-        <v>43797</v>
+        <v>45661</v>
       </c>
       <c r="F12" s="46">
-        <v>65747</v>
+        <v>65802</v>
       </c>
       <c r="G12" s="46">
-        <v>0</v>
+        <v>3326</v>
       </c>
       <c r="H12" s="46">
-        <v>147892</v>
+        <v>150530</v>
       </c>
       <c r="I12" s="46">
-        <v>133710</v>
+        <v>135392</v>
       </c>
       <c r="J12" s="46">
-        <v>12041</v>
+        <v>12632</v>
       </c>
       <c r="K12" s="46">
-        <v>1211</v>
+        <v>1310</v>
       </c>
       <c r="L12" s="46">
-        <v>930</v>
+        <v>1196</v>
       </c>
       <c r="M12" s="46">
-        <v>0</v>
+        <v>2279</v>
       </c>
       <c r="N12" s="46">
-        <v>238950</v>
+        <v>241898</v>
       </c>
       <c r="O12" s="46">
-        <v>179750</v>
+        <v>180699</v>
       </c>
       <c r="P12" s="46">
         <v>97</v>
       </c>
       <c r="Q12" s="46">
-        <v>59103</v>
+        <v>61102</v>
       </c>
       <c r="R12" s="46">
-        <v>31</v>
+        <v>2948</v>
       </c>
       <c r="S12" s="46">
-        <v>20223</v>
+        <v>20903</v>
       </c>
       <c r="T12" s="46">
-        <v>18224</v>
+        <v>18427</v>
       </c>
       <c r="U12" s="46">
         <v>46</v>
       </c>
       <c r="V12" s="46">
-        <v>1948</v>
+        <v>2425</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>14</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -3426,70 +3427,70 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>2130662</v>
+        <v>2149203</v>
       </c>
       <c r="D13" s="45">
-        <v>1276207</v>
+        <v>1290895</v>
       </c>
       <c r="E13" s="45">
-        <v>200256</v>
+        <v>201495</v>
       </c>
       <c r="F13" s="45">
-        <v>654199</v>
+        <v>656813</v>
       </c>
       <c r="G13" s="45">
-        <v>3831</v>
+        <v>16620</v>
       </c>
       <c r="H13" s="45">
-        <v>719734</v>
+        <v>728184</v>
       </c>
       <c r="I13" s="45">
-        <v>629765</v>
+        <v>636146</v>
       </c>
       <c r="J13" s="45">
-        <v>57611</v>
+        <v>58496</v>
       </c>
       <c r="K13" s="45">
-        <v>18305</v>
+        <v>19211</v>
       </c>
       <c r="L13" s="45">
-        <v>14053</v>
+        <v>14331</v>
       </c>
       <c r="M13" s="45">
-        <v>2386</v>
+        <v>7409</v>
       </c>
       <c r="N13" s="45">
-        <v>919105</v>
+        <v>932693</v>
       </c>
       <c r="O13" s="45">
-        <v>711517</v>
+        <v>715662</v>
       </c>
       <c r="P13" s="45">
         <v>568</v>
       </c>
       <c r="Q13" s="45">
-        <v>207020</v>
+        <v>216463</v>
       </c>
       <c r="R13" s="45">
-        <v>1441</v>
+        <v>13588</v>
       </c>
       <c r="S13" s="45">
-        <v>47824</v>
+        <v>50295</v>
       </c>
       <c r="T13" s="45">
-        <v>40625</v>
+        <v>42612</v>
       </c>
       <c r="U13" s="45">
         <v>475</v>
       </c>
       <c r="V13" s="45">
-        <v>6724</v>
+        <v>7208</v>
       </c>
       <c r="W13" s="45">
         <v>0</v>
       </c>
       <c r="X13" s="45">
-        <v>177</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -3500,70 +3501,70 @@
         <v>67</v>
       </c>
       <c r="C14" s="46">
-        <v>4752915</v>
+        <v>4795607</v>
       </c>
       <c r="D14" s="46">
-        <v>3202152</v>
+        <v>3233828</v>
       </c>
       <c r="E14" s="46">
-        <v>405138</v>
+        <v>415660</v>
       </c>
       <c r="F14" s="46">
-        <v>1145625</v>
+        <v>1146119</v>
       </c>
       <c r="G14" s="46">
-        <v>32169</v>
+        <v>35499</v>
       </c>
       <c r="H14" s="46">
-        <v>1734654</v>
+        <v>1785418</v>
       </c>
       <c r="I14" s="46">
-        <v>1594497</v>
+        <v>1632605</v>
       </c>
       <c r="J14" s="46">
-        <v>105598</v>
+        <v>114691</v>
       </c>
       <c r="K14" s="46">
-        <v>29728</v>
+        <v>32172</v>
       </c>
       <c r="L14" s="46">
-        <v>4831</v>
+        <v>5950</v>
       </c>
       <c r="M14" s="46">
-        <v>28839</v>
+        <v>23704</v>
       </c>
       <c r="N14" s="46">
-        <v>2262946</v>
+        <v>2302126</v>
       </c>
       <c r="O14" s="46">
-        <v>1671941</v>
+        <v>1683341</v>
       </c>
       <c r="P14" s="46">
-        <v>6286</v>
+        <v>6303</v>
       </c>
       <c r="Q14" s="46">
-        <v>584719</v>
+        <v>612482</v>
       </c>
       <c r="R14" s="46">
-        <v>3697</v>
+        <v>39180</v>
       </c>
       <c r="S14" s="46">
-        <v>119149</v>
+        <v>126114</v>
       </c>
       <c r="T14" s="46">
-        <v>103497</v>
+        <v>108823</v>
       </c>
       <c r="U14" s="46">
-        <v>1470</v>
+        <v>1484</v>
       </c>
       <c r="V14" s="46">
-        <v>13956</v>
+        <v>15581</v>
       </c>
       <c r="W14" s="46">
         <v>226</v>
       </c>
       <c r="X14" s="46">
-        <v>337</v>
+        <v>6965</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3574,70 +3575,70 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>1003608</v>
+        <v>1014592</v>
       </c>
       <c r="D15" s="45">
-        <v>656724</v>
+        <v>663594</v>
       </c>
       <c r="E15" s="45">
-        <v>82982</v>
+        <v>87026</v>
       </c>
       <c r="F15" s="45">
-        <v>263902</v>
+        <v>263972</v>
       </c>
       <c r="G15" s="45">
-        <v>4060</v>
+        <v>9747</v>
       </c>
       <c r="H15" s="45">
-        <v>491271</v>
+        <v>501319</v>
       </c>
       <c r="I15" s="45">
-        <v>423875</v>
+        <v>433468</v>
       </c>
       <c r="J15" s="45">
-        <v>38318</v>
+        <v>38704</v>
       </c>
       <c r="K15" s="45">
-        <v>29078</v>
+        <v>29147</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>760</v>
+        <v>8969</v>
       </c>
       <c r="N15" s="45">
-        <v>440251</v>
+        <v>445449</v>
       </c>
       <c r="O15" s="45">
-        <v>356064</v>
+        <v>358189</v>
       </c>
       <c r="P15" s="45">
         <v>203</v>
       </c>
       <c r="Q15" s="45">
-        <v>83984</v>
+        <v>87057</v>
       </c>
       <c r="R15" s="45">
-        <v>1720</v>
+        <v>5198</v>
       </c>
       <c r="S15" s="45">
-        <v>35239</v>
+        <v>36942</v>
       </c>
       <c r="T15" s="45">
-        <v>34256</v>
+        <v>35876</v>
       </c>
       <c r="U15" s="45">
         <v>69</v>
       </c>
       <c r="V15" s="45">
-        <v>914</v>
+        <v>997</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>19</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3648,70 +3649,70 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>295198</v>
+        <v>297379</v>
       </c>
       <c r="D16" s="46">
-        <v>223943</v>
+        <v>226073</v>
       </c>
       <c r="E16" s="46">
-        <v>29189</v>
+        <v>29236</v>
       </c>
       <c r="F16" s="46">
-        <v>42066</v>
+        <v>42070</v>
       </c>
       <c r="G16" s="46">
-        <v>286</v>
+        <v>1478</v>
       </c>
       <c r="H16" s="46">
-        <v>106430</v>
+        <v>111008</v>
       </c>
       <c r="I16" s="46">
-        <v>94148</v>
+        <v>97433</v>
       </c>
       <c r="J16" s="46">
-        <v>8830</v>
+        <v>9792</v>
       </c>
       <c r="K16" s="46">
-        <v>3452</v>
+        <v>3783</v>
       </c>
       <c r="L16" s="46">
         <v>0</v>
       </c>
       <c r="M16" s="46">
-        <v>749</v>
+        <v>4102</v>
       </c>
       <c r="N16" s="46">
-        <v>113768</v>
+        <v>115159</v>
       </c>
       <c r="O16" s="46">
-        <v>94035</v>
+        <v>94553</v>
       </c>
       <c r="P16" s="46">
         <v>79</v>
       </c>
       <c r="Q16" s="46">
-        <v>19654</v>
+        <v>20527</v>
       </c>
       <c r="R16" s="46">
-        <v>121</v>
+        <v>1391</v>
       </c>
       <c r="S16" s="46">
-        <v>7844</v>
+        <v>8235</v>
       </c>
       <c r="T16" s="46">
-        <v>7076</v>
+        <v>7388</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>762</v>
+        <v>841</v>
       </c>
       <c r="W16" s="46">
         <v>6</v>
       </c>
       <c r="X16" s="46">
-        <v>8</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -3722,70 +3723,70 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>926031</v>
+        <v>937748</v>
       </c>
       <c r="D17" s="45">
-        <v>655678</v>
+        <v>660107</v>
       </c>
       <c r="E17" s="45">
-        <v>88856</v>
+        <v>95237</v>
       </c>
       <c r="F17" s="45">
-        <v>181497</v>
+        <v>182404</v>
       </c>
       <c r="G17" s="45">
-        <v>10817</v>
+        <v>11717</v>
       </c>
       <c r="H17" s="45">
-        <v>543348</v>
+        <v>553455</v>
       </c>
       <c r="I17" s="45">
-        <v>497454</v>
+        <v>504938</v>
       </c>
       <c r="J17" s="45">
-        <v>42922</v>
+        <v>43578</v>
       </c>
       <c r="K17" s="45">
-        <v>2972</v>
+        <v>3618</v>
       </c>
       <c r="L17" s="45">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="M17" s="45">
-        <v>7507</v>
+        <v>10107</v>
       </c>
       <c r="N17" s="45">
-        <v>376118</v>
+        <v>380864</v>
       </c>
       <c r="O17" s="45">
-        <v>277098</v>
+        <v>278880</v>
       </c>
       <c r="P17" s="45">
         <v>174</v>
       </c>
       <c r="Q17" s="45">
-        <v>98846</v>
+        <v>101810</v>
       </c>
       <c r="R17" s="45">
-        <v>105</v>
+        <v>4746</v>
       </c>
       <c r="S17" s="45">
-        <v>66797</v>
+        <v>68618</v>
       </c>
       <c r="T17" s="45">
-        <v>65236</v>
+        <v>66617</v>
       </c>
       <c r="U17" s="45">
         <v>35</v>
       </c>
       <c r="V17" s="45">
-        <v>1488</v>
+        <v>1928</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>28</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -3796,70 +3797,70 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>544200</v>
+        <v>550208</v>
       </c>
       <c r="D18" s="47">
-        <v>360161</v>
+        <v>364057</v>
       </c>
       <c r="E18" s="47">
-        <v>53861</v>
+        <v>55960</v>
       </c>
       <c r="F18" s="47">
-        <v>130178</v>
+        <v>130191</v>
       </c>
       <c r="G18" s="47">
-        <v>613</v>
+        <v>6008</v>
       </c>
       <c r="H18" s="47">
-        <v>231154</v>
+        <v>236664</v>
       </c>
       <c r="I18" s="47">
-        <v>193976</v>
+        <v>197307</v>
       </c>
       <c r="J18" s="47">
-        <v>28124</v>
+        <v>28969</v>
       </c>
       <c r="K18" s="47">
-        <v>6853</v>
+        <v>7162</v>
       </c>
       <c r="L18" s="47">
-        <v>2201</v>
+        <v>3226</v>
       </c>
       <c r="M18" s="47">
-        <v>1567</v>
+        <v>5510</v>
       </c>
       <c r="N18" s="46">
-        <v>232096</v>
+        <v>234832</v>
       </c>
       <c r="O18" s="46">
-        <v>193993</v>
+        <v>195458</v>
       </c>
       <c r="P18" s="46">
         <v>36</v>
       </c>
       <c r="Q18" s="46">
-        <v>38067</v>
+        <v>39338</v>
       </c>
       <c r="R18" s="46">
-        <v>96</v>
+        <v>2736</v>
       </c>
       <c r="S18" s="46">
-        <v>17282</v>
+        <v>17766</v>
       </c>
       <c r="T18" s="46">
-        <v>15959</v>
+        <v>16329</v>
       </c>
       <c r="U18" s="46">
         <v>26</v>
       </c>
       <c r="V18" s="46">
-        <v>1297</v>
+        <v>1411</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>88</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -3870,70 +3871,70 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>661481</v>
+        <v>668089</v>
       </c>
       <c r="D19" s="45">
-        <v>458939</v>
+        <v>463679</v>
       </c>
       <c r="E19" s="45">
-        <v>57305</v>
+        <v>59164</v>
       </c>
       <c r="F19" s="45">
-        <v>145237</v>
+        <v>145246</v>
       </c>
       <c r="G19" s="45">
-        <v>5123</v>
+        <v>6513</v>
       </c>
       <c r="H19" s="45">
-        <v>369452</v>
+        <v>378977</v>
       </c>
       <c r="I19" s="45">
-        <v>319322</v>
+        <v>325327</v>
       </c>
       <c r="J19" s="45">
-        <v>34727</v>
+        <v>36043</v>
       </c>
       <c r="K19" s="45">
-        <v>15403</v>
+        <v>16706</v>
       </c>
       <c r="L19" s="45">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="M19" s="45">
-        <v>6658</v>
+        <v>9418</v>
       </c>
       <c r="N19" s="45">
-        <v>340643</v>
+        <v>346004</v>
       </c>
       <c r="O19" s="45">
-        <v>265090</v>
+        <v>266429</v>
       </c>
       <c r="P19" s="45">
-        <v>2401</v>
+        <v>2456</v>
       </c>
       <c r="Q19" s="45">
-        <v>73152</v>
+        <v>77119</v>
       </c>
       <c r="R19" s="45">
-        <v>250</v>
+        <v>5361</v>
       </c>
       <c r="S19" s="45">
-        <v>25356</v>
+        <v>25974</v>
       </c>
       <c r="T19" s="45">
-        <v>23570</v>
+        <v>24061</v>
       </c>
       <c r="U19" s="45">
         <v>386</v>
       </c>
       <c r="V19" s="45">
-        <v>1400</v>
+        <v>1527</v>
       </c>
       <c r="W19" s="45">
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>2</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -3944,70 +3945,70 @@
         <v>70</v>
       </c>
       <c r="C20" s="47">
-        <v>518061</v>
+        <v>523296</v>
       </c>
       <c r="D20" s="47">
-        <v>351277</v>
+        <v>355304</v>
       </c>
       <c r="E20" s="47">
-        <v>57728</v>
+        <v>58935</v>
       </c>
       <c r="F20" s="47">
-        <v>109056</v>
+        <v>109057</v>
       </c>
       <c r="G20" s="47">
-        <v>2970</v>
+        <v>4611</v>
       </c>
       <c r="H20" s="47">
-        <v>297367</v>
+        <v>299730</v>
       </c>
       <c r="I20" s="47">
-        <v>276476</v>
+        <v>278741</v>
       </c>
       <c r="J20" s="47">
-        <v>19937</v>
+        <v>19939</v>
       </c>
       <c r="K20" s="47">
-        <v>895</v>
+        <v>929</v>
       </c>
       <c r="L20" s="47">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="M20" s="47">
-        <v>213</v>
+        <v>2337</v>
       </c>
       <c r="N20" s="47">
-        <v>201314</v>
+        <v>203517</v>
       </c>
       <c r="O20" s="46">
-        <v>168664</v>
+        <v>169429</v>
       </c>
       <c r="P20" s="46">
         <v>94</v>
       </c>
       <c r="Q20" s="46">
-        <v>32556</v>
+        <v>33994</v>
       </c>
       <c r="R20" s="46">
-        <v>310</v>
+        <v>2203</v>
       </c>
       <c r="S20" s="46">
-        <v>25137</v>
+        <v>26129</v>
       </c>
       <c r="T20" s="46">
-        <v>21416</v>
+        <v>21918</v>
       </c>
       <c r="U20" s="46">
         <v>4</v>
       </c>
       <c r="V20" s="46">
-        <v>3707</v>
+        <v>4197</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>81</v>
+        <v>992</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -4016,68 +4017,68 @@
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>76513</v>
+        <v>78155</v>
       </c>
       <c r="D21" s="45">
-        <v>1611</v>
+        <v>1893</v>
       </c>
       <c r="E21" s="45">
-        <v>57032</v>
+        <v>58346</v>
       </c>
       <c r="F21" s="45">
-        <v>17870</v>
+        <v>17916</v>
       </c>
       <c r="G21" s="45">
-        <v>0</v>
+        <v>1537</v>
       </c>
       <c r="H21" s="45">
-        <v>14151</v>
+        <v>16168</v>
       </c>
       <c r="I21" s="55">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="J21" s="55">
-        <v>12089</v>
+        <v>13328</v>
       </c>
       <c r="K21" s="55">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="L21" s="55">
-        <v>1841</v>
+        <v>2412</v>
       </c>
       <c r="M21" s="55">
-        <v>0</v>
+        <v>1671</v>
       </c>
       <c r="N21" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O21" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P21" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R21" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S21" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T21" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U21" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V21" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W21" s="56"/>
       <c r="X21" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4086,70 +4087,70 @@
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>21346721</v>
+        <v>21559494</v>
       </c>
       <c r="D22" s="57">
-        <v>14046473</v>
+        <v>14194320</v>
       </c>
       <c r="E22" s="57">
-        <v>2099719</v>
+        <v>2159091</v>
       </c>
       <c r="F22" s="57">
-        <v>5200529</v>
+        <v>5206083</v>
       </c>
       <c r="G22" s="57">
-        <v>141456</v>
+        <v>199558</v>
       </c>
       <c r="H22" s="57">
-        <v>8636200</v>
+        <v>8821322</v>
       </c>
       <c r="I22" s="57">
-        <v>7632941</v>
+        <v>7762439</v>
       </c>
       <c r="J22" s="57">
-        <v>675201</v>
+        <v>705424</v>
       </c>
       <c r="K22" s="57">
-        <v>280677</v>
+        <v>297693</v>
       </c>
       <c r="L22" s="57">
-        <v>47381</v>
+        <v>55766</v>
       </c>
       <c r="M22" s="57">
-        <v>111289</v>
+        <v>154065</v>
       </c>
       <c r="N22" s="57">
-        <v>9396511</v>
+        <v>9535090</v>
       </c>
       <c r="O22" s="57">
-        <v>7259495</v>
+        <v>7306937</v>
       </c>
       <c r="P22" s="57">
-        <v>13679</v>
+        <v>14020</v>
       </c>
       <c r="Q22" s="57">
-        <v>2123337</v>
+        <v>2214133</v>
       </c>
       <c r="R22" s="57">
-        <v>14146</v>
+        <v>138579</v>
       </c>
       <c r="S22" s="57">
-        <v>695960</v>
+        <v>726699</v>
       </c>
       <c r="T22" s="57">
-        <v>631399</v>
+        <v>654966</v>
       </c>
       <c r="U22" s="57">
-        <v>3633</v>
+        <v>3652</v>
       </c>
       <c r="V22" s="57">
-        <v>60571</v>
+        <v>67706</v>
       </c>
       <c r="W22" s="57">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="X22" s="57">
-        <v>1859</v>
+        <v>30739</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -4164,29 +4165,29 @@
       </c>
     </row>
     <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
       <c r="W27" s="62"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -4194,8 +4195,14 @@
         <v>61</v>
       </c>
     </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B27:V27"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:M1"/>
@@ -4207,7 +4214,6 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="X3:X4"/>
-    <mergeCell ref="B27:V27"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:Q3"/>
@@ -4220,366 +4226,354 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="D1" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="68">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
         <v>23987</v>
       </c>
-      <c r="C2" s="45">
-        <v>0</v>
-      </c>
+      <c r="C2" s="69"/>
       <c r="D2" s="45">
         <v>23987</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="69">
+      <c r="E2" s="67"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="70">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
         <v>18522</v>
       </c>
-      <c r="C3" s="46">
-        <v>0</v>
-      </c>
+      <c r="C3" s="71"/>
       <c r="D3" s="46">
         <v>18522</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="67"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
-        <v>50005</v>
-      </c>
-      <c r="C4" s="45">
-        <v>0</v>
-      </c>
+        <v>50004</v>
+      </c>
+      <c r="C4" s="69"/>
       <c r="D4" s="45">
-        <v>50005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="69">
+        <v>50004</v>
+      </c>
+      <c r="E4" s="67"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="70">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
         <v>62547</v>
       </c>
-      <c r="C5" s="46">
-        <v>0</v>
-      </c>
+      <c r="C5" s="71"/>
       <c r="D5" s="46">
         <v>62547</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="67"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
         <v>49870</v>
       </c>
-      <c r="C6" s="45">
-        <v>0</v>
-      </c>
+      <c r="C6" s="69"/>
       <c r="D6" s="45">
         <v>49870</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
+      <c r="E6" s="67"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="70">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
         <v>18771</v>
       </c>
-      <c r="C7" s="46">
-        <v>0</v>
-      </c>
+      <c r="C7" s="71"/>
       <c r="D7" s="46">
         <v>18771</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="67"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
-        <v>52132</v>
-      </c>
-      <c r="C8" s="45">
-        <v>0</v>
-      </c>
+        <v>52133</v>
+      </c>
+      <c r="C8" s="69"/>
       <c r="D8" s="45">
-        <v>52132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="69">
+        <v>52133</v>
+      </c>
+      <c r="E8" s="67"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="70">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
-        <v>23772</v>
-      </c>
-      <c r="C9" s="46">
-        <v>0</v>
-      </c>
+        <v>23771</v>
+      </c>
+      <c r="C9" s="71"/>
       <c r="D9" s="46">
-        <v>23772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23771</v>
+      </c>
+      <c r="E9" s="67"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="68">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
         <v>48025</v>
       </c>
-      <c r="C10" s="45">
-        <v>0</v>
-      </c>
+      <c r="C10" s="69"/>
       <c r="D10" s="45">
         <v>48025</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="69">
+      <c r="E10" s="67"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="70">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
         <v>53686</v>
       </c>
-      <c r="C11" s="46">
-        <v>0</v>
-      </c>
+      <c r="C11" s="71"/>
       <c r="D11" s="46">
         <v>53686</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="67"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="68">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
         <v>62664</v>
       </c>
-      <c r="C12" s="45">
-        <v>0</v>
-      </c>
+      <c r="C12" s="69"/>
       <c r="D12" s="45">
         <v>62664</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="69">
+      <c r="E12" s="67"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="70">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
-        <v>55938</v>
-      </c>
-      <c r="C13" s="46">
-        <v>0</v>
-      </c>
+        <v>55937</v>
+      </c>
+      <c r="C13" s="71"/>
       <c r="D13" s="46">
-        <v>55938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55937</v>
+      </c>
+      <c r="E13" s="67"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="68">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>62733</v>
-      </c>
-      <c r="C14" s="45">
-        <v>0</v>
-      </c>
+        <v>62734</v>
+      </c>
+      <c r="C14" s="69"/>
       <c r="D14" s="45">
-        <v>62733</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
+        <v>62734</v>
+      </c>
+      <c r="E14" s="67"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="72">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
-        <v>61043</v>
-      </c>
-      <c r="C15" s="47">
-        <v>0</v>
-      </c>
+        <v>61040</v>
+      </c>
+      <c r="C15" s="73"/>
       <c r="D15" s="47">
-        <v>61043</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61040</v>
+      </c>
+      <c r="E15" s="67"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="68">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
         <v>35504</v>
       </c>
-      <c r="C16" s="45">
-        <v>0</v>
-      </c>
+      <c r="C16" s="69"/>
       <c r="D16" s="45">
         <v>35504</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
+      <c r="E16" s="67"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="72">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
         <v>67526</v>
       </c>
-      <c r="C17" s="47">
-        <v>0</v>
-      </c>
+      <c r="C17" s="73"/>
       <c r="D17" s="47">
         <v>67526</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="67"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="68">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
         <v>82600</v>
       </c>
-      <c r="C18" s="45">
-        <v>0</v>
-      </c>
+      <c r="C18" s="69"/>
       <c r="D18" s="45">
         <v>82600</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="69">
+      <c r="E18" s="67"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="70">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
         <v>111515</v>
       </c>
-      <c r="C19" s="46">
-        <v>0</v>
-      </c>
+      <c r="C19" s="71"/>
       <c r="D19" s="46">
         <v>111515</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="67"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="68">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
-        <v>82911</v>
-      </c>
-      <c r="C20" s="45">
-        <v>0</v>
-      </c>
+        <v>82965</v>
+      </c>
+      <c r="C20" s="69"/>
       <c r="D20" s="45">
-        <v>82911</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="69">
+        <v>82965</v>
+      </c>
+      <c r="E20" s="67"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="70">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>90910</v>
+        <v>90908</v>
       </c>
       <c r="C21" s="46">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D21" s="46">
-        <v>91521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91517</v>
+      </c>
+      <c r="E21" s="67"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="68">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
-        <v>56663</v>
+        <v>56662</v>
       </c>
       <c r="C22" s="45">
         <v>906</v>
       </c>
       <c r="D22" s="45">
-        <v>57569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="69">
+        <v>57568</v>
+      </c>
+      <c r="E22" s="67"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="70">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
-        <v>31660</v>
+        <v>31659</v>
       </c>
       <c r="C23" s="46">
         <v>17342</v>
       </c>
       <c r="D23" s="46">
-        <v>49002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49001</v>
+      </c>
+      <c r="E23" s="67"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="68">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66855</v>
+        <v>66856</v>
       </c>
       <c r="C24" s="45">
         <v>15772</v>
       </c>
       <c r="D24" s="45">
-        <v>82627</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="69">
+        <v>82628</v>
+      </c>
+      <c r="E24" s="67"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="70">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
-        <v>82794</v>
+        <v>82793</v>
       </c>
       <c r="C25" s="46">
-        <v>34882</v>
+        <v>34881</v>
       </c>
       <c r="D25" s="46">
-        <v>117676</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117674</v>
+      </c>
+      <c r="E25" s="67"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="68">
         <v>44216</v>
       </c>
@@ -4592,106 +4586,114 @@
       <c r="D26" s="45">
         <v>132013</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="69">
+      <c r="E26" s="67"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="70">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
-        <v>65868</v>
+        <v>65867</v>
       </c>
       <c r="C27" s="46">
         <v>41853</v>
       </c>
       <c r="D27" s="46">
-        <v>107721</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107720</v>
+      </c>
+      <c r="E27" s="67"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="68">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
-        <v>68478</v>
+        <v>68477</v>
       </c>
       <c r="C28" s="45">
-        <v>35562</v>
+        <v>35561</v>
       </c>
       <c r="D28" s="45">
-        <v>104040</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="69">
+        <v>104038</v>
+      </c>
+      <c r="E28" s="67"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="70">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
         <v>40050</v>
       </c>
       <c r="C29" s="46">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="D29" s="46">
-        <v>85011</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85010</v>
+      </c>
+      <c r="E29" s="67"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="68">
         <v>44220</v>
       </c>
       <c r="B30" s="45">
-        <v>26077</v>
+        <v>26084</v>
       </c>
       <c r="C30" s="45">
         <v>23147</v>
       </c>
       <c r="D30" s="45">
-        <v>49224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
+        <v>49231</v>
+      </c>
+      <c r="E30" s="67"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="72">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
-        <v>53104</v>
+        <v>53103</v>
       </c>
       <c r="C31" s="47">
-        <v>38600</v>
+        <v>38601</v>
       </c>
       <c r="D31" s="47">
         <v>91704</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="67"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="68">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
-        <v>50234</v>
+        <v>50233</v>
       </c>
       <c r="C32" s="45">
         <v>48429</v>
       </c>
       <c r="D32" s="45">
-        <v>98663</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="70">
+        <v>98662</v>
+      </c>
+      <c r="E32" s="67"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="72">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
         <v>51514</v>
       </c>
       <c r="C33" s="47">
-        <v>59632</v>
+        <v>59631</v>
       </c>
       <c r="D33" s="47">
-        <v>111146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111145</v>
+      </c>
+      <c r="E33" s="67"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="68">
         <v>44224</v>
       </c>
@@ -4699,42 +4701,45 @@
         <v>45127</v>
       </c>
       <c r="C34" s="45">
-        <v>46038</v>
+        <v>46040</v>
       </c>
       <c r="D34" s="45">
-        <v>91165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="69">
+        <v>91167</v>
+      </c>
+      <c r="E34" s="67"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="70">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
-        <v>51462</v>
+        <v>51463</v>
       </c>
       <c r="C35" s="46">
         <v>57651</v>
       </c>
       <c r="D35" s="46">
-        <v>109113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109114</v>
+      </c>
+      <c r="E35" s="67"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="68">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
-        <v>36312</v>
+        <v>36319</v>
       </c>
       <c r="C36" s="45">
         <v>52159</v>
       </c>
       <c r="D36" s="45">
-        <v>88471</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="69">
+        <v>88478</v>
+      </c>
+      <c r="E36" s="67"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="70">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
@@ -4746,92 +4751,99 @@
       <c r="D37" s="46">
         <v>56514</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="67"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="68">
         <v>44228</v>
       </c>
       <c r="B38" s="45">
-        <v>59161</v>
+        <v>59160</v>
       </c>
       <c r="C38" s="45">
         <v>61489</v>
       </c>
       <c r="D38" s="45">
-        <v>120650</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="69">
+        <v>120649</v>
+      </c>
+      <c r="E38" s="67"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="70">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
-        <v>64214</v>
+        <v>64215</v>
       </c>
       <c r="C39" s="46">
-        <v>67477</v>
+        <v>67479</v>
       </c>
       <c r="D39" s="46">
-        <v>131691</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131694</v>
+      </c>
+      <c r="E39" s="67"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="68">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
-        <v>64161</v>
+        <v>64162</v>
       </c>
       <c r="C40" s="45">
         <v>95302</v>
       </c>
       <c r="D40" s="45">
-        <v>159463</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="69">
+        <v>159464</v>
+      </c>
+      <c r="E40" s="67"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="70">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
-        <v>61086</v>
+        <v>61084</v>
       </c>
       <c r="C41" s="46">
         <v>70691</v>
       </c>
       <c r="D41" s="46">
-        <v>131777</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131775</v>
+      </c>
+      <c r="E41" s="67"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="68">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
-        <v>67661</v>
+        <v>67660</v>
       </c>
       <c r="C42" s="45">
-        <v>77047</v>
+        <v>77053</v>
       </c>
       <c r="D42" s="45">
-        <v>144708</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="69">
+        <v>144713</v>
+      </c>
+      <c r="E42" s="67"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="70">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
-        <v>47172</v>
+        <v>47173</v>
       </c>
       <c r="C43" s="46">
-        <v>52970</v>
+        <v>52979</v>
       </c>
       <c r="D43" s="46">
-        <v>100142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100152</v>
+      </c>
+      <c r="E43" s="67"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="68">
         <v>44234</v>
       </c>
@@ -4844,50 +4856,54 @@
       <c r="D44" s="45">
         <v>54259</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="69">
+      <c r="E44" s="67"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="70">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
         <v>53168</v>
       </c>
       <c r="C45" s="46">
-        <v>56780</v>
+        <v>56779</v>
       </c>
       <c r="D45" s="46">
-        <v>109948</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109947</v>
+      </c>
+      <c r="E45" s="67"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="68">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59698</v>
+        <v>59690</v>
       </c>
       <c r="C46" s="45">
-        <v>74238</v>
+        <v>74235</v>
       </c>
       <c r="D46" s="45">
-        <v>133936</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
+        <v>133925</v>
+      </c>
+      <c r="E46" s="67"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="72">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
-        <v>75153</v>
+        <v>75150</v>
       </c>
       <c r="C47" s="47">
         <v>76612</v>
       </c>
       <c r="D47" s="47">
-        <v>151765</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151762</v>
+      </c>
+      <c r="E47" s="67"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="68">
         <v>44238</v>
       </c>
@@ -4895,139 +4911,149 @@
         <v>73837</v>
       </c>
       <c r="C48" s="45">
-        <v>67320</v>
+        <v>67321</v>
       </c>
       <c r="D48" s="45">
-        <v>141157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="70">
+        <v>141158</v>
+      </c>
+      <c r="E48" s="67"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="72">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
-        <v>81422</v>
+        <v>81419</v>
       </c>
       <c r="C49" s="47">
-        <v>76073</v>
+        <v>76075</v>
       </c>
       <c r="D49" s="47">
-        <v>157495</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157494</v>
+      </c>
+      <c r="E49" s="67"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="68">
         <v>44240</v>
       </c>
       <c r="B50" s="45">
-        <v>62176</v>
+        <v>62177</v>
       </c>
       <c r="C50" s="45">
-        <v>45579</v>
+        <v>45580</v>
       </c>
       <c r="D50" s="45">
-        <v>107755</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="69">
+        <v>107757</v>
+      </c>
+      <c r="E50" s="67"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="70">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
-        <v>40026</v>
+        <v>40025</v>
       </c>
       <c r="C51" s="46">
-        <v>25262</v>
+        <v>25269</v>
       </c>
       <c r="D51" s="46">
-        <v>65288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65294</v>
+      </c>
+      <c r="E51" s="67"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="68">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71149</v>
+        <v>71147</v>
       </c>
       <c r="C52" s="45">
-        <v>55609</v>
+        <v>55611</v>
       </c>
       <c r="D52" s="45">
         <v>126758</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="69">
+      <c r="E52" s="67"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="70">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>81985</v>
+        <v>81983</v>
       </c>
       <c r="C53" s="46">
-        <v>54620</v>
+        <v>54621</v>
       </c>
       <c r="D53" s="46">
-        <v>136605</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136604</v>
+      </c>
+      <c r="E53" s="67"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="68">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>93523</v>
+        <v>93530</v>
       </c>
       <c r="C54" s="45">
-        <v>55669</v>
+        <v>55671</v>
       </c>
       <c r="D54" s="45">
-        <v>149192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="69">
+        <v>149201</v>
+      </c>
+      <c r="E54" s="67"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="70">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
-        <v>91456</v>
+        <v>91453</v>
       </c>
       <c r="C55" s="46">
-        <v>51238</v>
+        <v>51240</v>
       </c>
       <c r="D55" s="46">
-        <v>142694</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142693</v>
+      </c>
+      <c r="E55" s="67"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="68">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
-        <v>99789</v>
+        <v>99785</v>
       </c>
       <c r="C56" s="45">
-        <v>54733</v>
+        <v>54736</v>
       </c>
       <c r="D56" s="45">
-        <v>154522</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="69">
+        <v>154521</v>
+      </c>
+      <c r="E56" s="67"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="70">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
-        <v>76300</v>
+        <v>76303</v>
       </c>
       <c r="C57" s="46">
-        <v>37100</v>
+        <v>37101</v>
       </c>
       <c r="D57" s="46">
-        <v>113400</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113404</v>
+      </c>
+      <c r="E57" s="67"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="68">
         <v>44248</v>
       </c>
@@ -5035,98 +5061,105 @@
         <v>57044</v>
       </c>
       <c r="C58" s="45">
-        <v>29109</v>
+        <v>29110</v>
       </c>
       <c r="D58" s="45">
-        <v>86153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="69">
+        <v>86154</v>
+      </c>
+      <c r="E58" s="67"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="70">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100217</v>
+        <v>100233</v>
       </c>
       <c r="C59" s="46">
-        <v>60114</v>
+        <v>60111</v>
       </c>
       <c r="D59" s="46">
-        <v>160331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160344</v>
+      </c>
+      <c r="E59" s="67"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="68">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107410</v>
+        <v>107415</v>
       </c>
       <c r="C60" s="45">
-        <v>59773</v>
+        <v>59774</v>
       </c>
       <c r="D60" s="45">
-        <v>167183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="69">
+        <v>167189</v>
+      </c>
+      <c r="E60" s="67"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="70">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
-        <v>116344</v>
+        <v>116366</v>
       </c>
       <c r="C61" s="46">
         <v>59598</v>
       </c>
       <c r="D61" s="46">
-        <v>175942</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175964</v>
+      </c>
+      <c r="E61" s="67"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="68">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130653</v>
+        <v>130813</v>
       </c>
       <c r="C62" s="45">
-        <v>58675</v>
+        <v>58535</v>
       </c>
       <c r="D62" s="45">
-        <v>189328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="70">
+        <v>189348</v>
+      </c>
+      <c r="E62" s="67"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="72">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
-        <v>144375</v>
+        <v>144372</v>
       </c>
       <c r="C63" s="47">
         <v>65425</v>
       </c>
       <c r="D63" s="47">
-        <v>209800</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209797</v>
+      </c>
+      <c r="E63" s="67"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="68">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
-        <v>108608</v>
+        <v>108607</v>
       </c>
       <c r="C64" s="45">
-        <v>40016</v>
+        <v>40014</v>
       </c>
       <c r="D64" s="45">
-        <v>148624</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="70">
+        <v>148621</v>
+      </c>
+      <c r="E64" s="67"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="72">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
@@ -5138,1118 +5171,1227 @@
       <c r="D65" s="47">
         <v>108100</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="67"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="68">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146430</v>
+        <v>146451</v>
       </c>
       <c r="C66" s="45">
         <v>49368</v>
       </c>
       <c r="D66" s="45">
-        <v>195798</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="69">
+        <v>195819</v>
+      </c>
+      <c r="E66" s="67"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="70">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166244</v>
+        <v>166256</v>
       </c>
       <c r="C67" s="46">
-        <v>53687</v>
+        <v>53688</v>
       </c>
       <c r="D67" s="46">
-        <v>219931</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219944</v>
+      </c>
+      <c r="E67" s="67"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="68">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174769</v>
+        <v>174736</v>
       </c>
       <c r="C68" s="45">
-        <v>68993</v>
+        <v>68992</v>
       </c>
       <c r="D68" s="45">
-        <v>243762</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="69">
+        <v>243728</v>
+      </c>
+      <c r="E68" s="67"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="70">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
-        <v>180453</v>
+        <v>180464</v>
       </c>
       <c r="C69" s="46">
-        <v>62679</v>
+        <v>62678</v>
       </c>
       <c r="D69" s="46">
-        <v>243132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243142</v>
+      </c>
+      <c r="E69" s="67"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="68">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201728</v>
+        <v>201729</v>
       </c>
       <c r="C70" s="45">
         <v>67424</v>
       </c>
       <c r="D70" s="45">
-        <v>269152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="69">
+        <v>269153</v>
+      </c>
+      <c r="E70" s="67"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="70">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
-        <v>153198</v>
+        <v>153197</v>
       </c>
       <c r="C71" s="46">
         <v>49291</v>
       </c>
       <c r="D71" s="46">
-        <v>202489</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>202488</v>
+      </c>
+      <c r="E71" s="67"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="68">
         <v>44262</v>
       </c>
       <c r="B72" s="45">
-        <v>115929</v>
+        <v>115930</v>
       </c>
       <c r="C72" s="45">
-        <v>34458</v>
+        <v>34459</v>
       </c>
       <c r="D72" s="45">
-        <v>150387</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="69">
+        <v>150389</v>
+      </c>
+      <c r="E72" s="67"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="70">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186699</v>
+        <v>186712</v>
       </c>
       <c r="C73" s="46">
-        <v>52502</v>
+        <v>52503</v>
       </c>
       <c r="D73" s="46">
-        <v>239201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>239215</v>
+      </c>
+      <c r="E73" s="67"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="68">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195695</v>
+        <v>195711</v>
       </c>
       <c r="C74" s="45">
-        <v>54766</v>
+        <v>54763</v>
       </c>
       <c r="D74" s="45">
-        <v>250461</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="69">
+        <v>250474</v>
+      </c>
+      <c r="E74" s="67"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="70">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>218062</v>
+        <v>218066</v>
       </c>
       <c r="C75" s="46">
-        <v>65687</v>
+        <v>65686</v>
       </c>
       <c r="D75" s="46">
-        <v>283749</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>283752</v>
+      </c>
+      <c r="E75" s="67"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="68">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220704</v>
+        <v>220712</v>
       </c>
       <c r="C76" s="45">
-        <v>60906</v>
+        <v>60903</v>
       </c>
       <c r="D76" s="45">
-        <v>281610</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="69">
+        <v>281615</v>
+      </c>
+      <c r="E76" s="67"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="70">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
-        <v>252347</v>
+        <v>252392</v>
       </c>
       <c r="C77" s="46">
-        <v>71651</v>
+        <v>71649</v>
       </c>
       <c r="D77" s="46">
-        <v>323998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>324041</v>
+      </c>
+      <c r="E77" s="67"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="68">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
-        <v>197083</v>
+        <v>197096</v>
       </c>
       <c r="C78" s="45">
-        <v>49436</v>
+        <v>49435</v>
       </c>
       <c r="D78" s="45">
-        <v>246519</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="70">
+        <v>246531</v>
+      </c>
+      <c r="E78" s="67"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="72">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
-        <v>135211</v>
+        <v>135229</v>
       </c>
       <c r="C79" s="47">
         <v>35994</v>
       </c>
       <c r="D79" s="47">
-        <v>171205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171223</v>
+      </c>
+      <c r="E79" s="67"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="68">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189421</v>
+        <v>189430</v>
       </c>
       <c r="C80" s="45">
-        <v>58863</v>
+        <v>58862</v>
       </c>
       <c r="D80" s="45">
-        <v>248284</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="70">
+        <v>248292</v>
+      </c>
+      <c r="E80" s="67"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="72">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
-        <v>112135</v>
+        <v>112134</v>
       </c>
       <c r="C81" s="47">
-        <v>67021</v>
+        <v>67022</v>
       </c>
       <c r="D81" s="47">
         <v>179156</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="67"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="68">
         <v>44272</v>
       </c>
       <c r="B82" s="45">
-        <v>125749</v>
+        <v>125750</v>
       </c>
       <c r="C82" s="45">
-        <v>79463</v>
+        <v>79462</v>
       </c>
       <c r="D82" s="45">
         <v>205212</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="69">
+      <c r="E82" s="67"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="70">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119361</v>
+        <v>119360</v>
       </c>
       <c r="C83" s="46">
-        <v>75344</v>
+        <v>75343</v>
       </c>
       <c r="D83" s="46">
-        <v>194705</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>194703</v>
+      </c>
+      <c r="E83" s="67"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="68">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
-        <v>161068</v>
+        <v>161069</v>
       </c>
       <c r="C84" s="45">
-        <v>82840</v>
+        <v>82838</v>
       </c>
       <c r="D84" s="45">
-        <v>243908</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="69">
+        <v>243907</v>
+      </c>
+      <c r="E84" s="67"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="70">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166339</v>
+        <v>166338</v>
       </c>
       <c r="C85" s="46">
-        <v>53888</v>
+        <v>53886</v>
       </c>
       <c r="D85" s="46">
-        <v>220227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220224</v>
+      </c>
+      <c r="E85" s="67"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="68">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127336</v>
+        <v>127335</v>
       </c>
       <c r="C86" s="45">
-        <v>38765</v>
+        <v>38764</v>
       </c>
       <c r="D86" s="45">
-        <v>166101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="69">
+        <v>166099</v>
+      </c>
+      <c r="E86" s="67"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="70">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>190051</v>
+        <v>190052</v>
       </c>
       <c r="C87" s="46">
-        <v>76161</v>
+        <v>76165</v>
       </c>
       <c r="D87" s="46">
-        <v>266212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266217</v>
+      </c>
+      <c r="E87" s="67"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="68">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>214123</v>
+        <v>214130</v>
       </c>
       <c r="C88" s="45">
-        <v>83762</v>
+        <v>83761</v>
       </c>
       <c r="D88" s="45">
-        <v>297885</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="69">
+        <v>297891</v>
+      </c>
+      <c r="E88" s="67"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="70">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
         <v>245756</v>
       </c>
       <c r="C89" s="46">
-        <v>88308</v>
+        <v>88306</v>
       </c>
       <c r="D89" s="46">
-        <v>334064</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>334062</v>
+      </c>
+      <c r="E89" s="67"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="68">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257438</v>
+        <v>257441</v>
       </c>
       <c r="C90" s="45">
         <v>80154</v>
       </c>
       <c r="D90" s="45">
-        <v>337592</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="69">
+        <v>337595</v>
+      </c>
+      <c r="E90" s="67"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="70">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>285974</v>
+        <v>285982</v>
       </c>
       <c r="C91" s="46">
-        <v>88749</v>
+        <v>88747</v>
       </c>
       <c r="D91" s="46">
-        <v>374723</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>374729</v>
+      </c>
+      <c r="E91" s="67"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="68">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223619</v>
+        <v>223622</v>
       </c>
       <c r="C92" s="45">
-        <v>63156</v>
+        <v>63154</v>
       </c>
       <c r="D92" s="45">
-        <v>286775</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="69">
+        <v>286776</v>
+      </c>
+      <c r="E92" s="67"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="70">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
-        <v>144183</v>
+        <v>144185</v>
       </c>
       <c r="C93" s="46">
-        <v>52743</v>
+        <v>52739</v>
       </c>
       <c r="D93" s="46">
-        <v>196926</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196924</v>
+      </c>
+      <c r="E93" s="67"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="68">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219749</v>
+        <v>219777</v>
       </c>
       <c r="C94" s="45">
-        <v>89030</v>
+        <v>89031</v>
       </c>
       <c r="D94" s="45">
-        <v>308779</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="70">
+        <v>308808</v>
+      </c>
+      <c r="E94" s="67"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="72">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>235114</v>
+        <v>235139</v>
       </c>
       <c r="C95" s="47">
         <v>93352</v>
       </c>
       <c r="D95" s="47">
-        <v>328466</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>328491</v>
+      </c>
+      <c r="E95" s="67"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="68">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>238441</v>
+        <v>238468</v>
       </c>
       <c r="C96" s="45">
         <v>103075</v>
       </c>
       <c r="D96" s="45">
-        <v>341516</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="70">
+        <v>341543</v>
+      </c>
+      <c r="E96" s="67"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="72">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>231317</v>
+        <v>231352</v>
       </c>
       <c r="C97" s="47">
-        <v>92404</v>
+        <v>92405</v>
       </c>
       <c r="D97" s="47">
-        <v>323721</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>323757</v>
+      </c>
+      <c r="E97" s="67"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="68">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158374</v>
+        <v>158405</v>
       </c>
       <c r="C98" s="45">
-        <v>71582</v>
+        <v>71581</v>
       </c>
       <c r="D98" s="45">
-        <v>229956</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="69">
+        <v>229986</v>
+      </c>
+      <c r="E98" s="67"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="70">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>165986</v>
+        <v>166008</v>
       </c>
       <c r="C99" s="46">
-        <v>66022</v>
+        <v>66021</v>
       </c>
       <c r="D99" s="46">
-        <v>232008</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232029</v>
+      </c>
+      <c r="E99" s="67"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="68">
         <v>44290</v>
       </c>
       <c r="B100" s="45">
-        <v>142569</v>
+        <v>142582</v>
       </c>
       <c r="C100" s="45">
-        <v>53542</v>
+        <v>53540</v>
       </c>
       <c r="D100" s="45">
-        <v>196111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="69">
+        <v>196122</v>
+      </c>
+      <c r="E100" s="67"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="70">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176250</v>
+        <v>176291</v>
       </c>
       <c r="C101" s="46">
-        <v>73397</v>
+        <v>73384</v>
       </c>
       <c r="D101" s="46">
-        <v>249647</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249675</v>
+      </c>
+      <c r="E101" s="67"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="68">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>279309</v>
+        <v>279385</v>
       </c>
       <c r="C102" s="45">
-        <v>99146</v>
+        <v>99100</v>
       </c>
       <c r="D102" s="45">
-        <v>378455</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="69">
+        <v>378485</v>
+      </c>
+      <c r="E102" s="67"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="70">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>580475</v>
+        <v>580507</v>
       </c>
       <c r="C103" s="46">
-        <v>97100</v>
+        <v>97098</v>
       </c>
       <c r="D103" s="46">
-        <v>677575</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>677605</v>
+      </c>
+      <c r="E103" s="67"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="68">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>643087</v>
+        <v>643109</v>
       </c>
       <c r="C104" s="45">
-        <v>89745</v>
+        <v>89742</v>
       </c>
       <c r="D104" s="45">
-        <v>732832</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="69">
+        <v>732851</v>
+      </c>
+      <c r="E104" s="67"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="70">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>534736</v>
+        <v>534763</v>
       </c>
       <c r="C105" s="46">
-        <v>88324</v>
+        <v>88319</v>
       </c>
       <c r="D105" s="46">
-        <v>623060</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>623082</v>
+      </c>
+      <c r="E105" s="67"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="68">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>303031</v>
+        <v>303041</v>
       </c>
       <c r="C106" s="45">
-        <v>65452</v>
+        <v>65448</v>
       </c>
       <c r="D106" s="45">
-        <v>368483</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="69">
+        <v>368489</v>
+      </c>
+      <c r="E106" s="67"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="70">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210522</v>
+        <v>210525</v>
       </c>
       <c r="C107" s="46">
-        <v>50076</v>
+        <v>50071</v>
       </c>
       <c r="D107" s="46">
-        <v>260598</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260596</v>
+      </c>
+      <c r="E107" s="67"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="68">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338652</v>
+        <v>338804</v>
       </c>
       <c r="C108" s="45">
-        <v>76834</v>
+        <v>76820</v>
       </c>
       <c r="D108" s="45">
-        <v>415486</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="69">
+        <v>415624</v>
+      </c>
+      <c r="E108" s="67"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="70">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
-        <v>497661</v>
+        <v>497670</v>
       </c>
       <c r="C109" s="46">
-        <v>73395</v>
+        <v>73392</v>
       </c>
       <c r="D109" s="46">
-        <v>571056</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>571062</v>
+      </c>
+      <c r="E109" s="67"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="68">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>690384</v>
+        <v>690409</v>
       </c>
       <c r="C110" s="45">
         <v>83395</v>
       </c>
       <c r="D110" s="45">
-        <v>773779</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="70">
+        <v>773804</v>
+      </c>
+      <c r="E110" s="67"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="72">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608495</v>
+        <v>608499</v>
       </c>
       <c r="C111" s="47">
-        <v>70788</v>
+        <v>70787</v>
       </c>
       <c r="D111" s="47">
-        <v>679283</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>679286</v>
+      </c>
+      <c r="E111" s="67"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="68">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>517951</v>
+        <v>518024</v>
       </c>
       <c r="C112" s="45">
-        <v>75367</v>
+        <v>75356</v>
       </c>
       <c r="D112" s="45">
-        <v>593318</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="70">
+        <v>593380</v>
+      </c>
+      <c r="E112" s="67"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="72">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305766</v>
+        <v>305805</v>
       </c>
       <c r="C113" s="47">
-        <v>56370</v>
+        <v>56479</v>
       </c>
       <c r="D113" s="47">
-        <v>362136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>362284</v>
+      </c>
+      <c r="E113" s="67"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="68">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
-        <v>226954</v>
+        <v>226957</v>
       </c>
       <c r="C114" s="45">
-        <v>39223</v>
+        <v>39222</v>
       </c>
       <c r="D114" s="45">
-        <v>266177</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="69">
+        <v>266179</v>
+      </c>
+      <c r="E114" s="67"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="70">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>338215</v>
+        <v>338239</v>
       </c>
       <c r="C115" s="46">
-        <v>60787</v>
+        <v>60784</v>
       </c>
       <c r="D115" s="46">
-        <v>399002</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>399023</v>
+      </c>
+      <c r="E115" s="67"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="68">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>493646</v>
+        <v>493709</v>
       </c>
       <c r="C116" s="45">
-        <v>61562</v>
+        <v>61587</v>
       </c>
       <c r="D116" s="45">
-        <v>555208</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="69">
+        <v>555296</v>
+      </c>
+      <c r="E116" s="67"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="70">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>641708</v>
+        <v>641766</v>
       </c>
       <c r="C117" s="46">
-        <v>71645</v>
+        <v>71756</v>
       </c>
       <c r="D117" s="46">
-        <v>713353</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713522</v>
+      </c>
+      <c r="E117" s="67"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="68">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>567888</v>
+        <v>567896</v>
       </c>
       <c r="C118" s="45">
-        <v>66114</v>
+        <v>66117</v>
       </c>
       <c r="D118" s="45">
-        <v>634002</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="69">
+        <v>634013</v>
+      </c>
+      <c r="E118" s="67"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="70">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>483374</v>
+        <v>483385</v>
       </c>
       <c r="C119" s="46">
-        <v>67554</v>
+        <v>67542</v>
       </c>
       <c r="D119" s="46">
-        <v>550928</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>550927</v>
+      </c>
+      <c r="E119" s="67"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="68">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>309342</v>
+        <v>309354</v>
       </c>
       <c r="C120" s="45">
-        <v>59765</v>
+        <v>59750</v>
       </c>
       <c r="D120" s="45">
-        <v>369107</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="69">
+        <v>369104</v>
+      </c>
+      <c r="E120" s="67"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="70">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
-        <v>235463</v>
+        <v>235468</v>
       </c>
       <c r="C121" s="46">
-        <v>47749</v>
+        <v>47744</v>
       </c>
       <c r="D121" s="46">
         <v>283212</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="67"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="68">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>354412</v>
+        <v>354458</v>
       </c>
       <c r="C122" s="45">
-        <v>73166</v>
+        <v>73234</v>
       </c>
       <c r="D122" s="45">
-        <v>427578</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="69">
+        <v>427692</v>
+      </c>
+      <c r="E122" s="67"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="70">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>693418</v>
+        <v>693431</v>
       </c>
       <c r="C123" s="46">
-        <v>90186</v>
+        <v>90189</v>
       </c>
       <c r="D123" s="46">
-        <v>783604</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>783620</v>
+      </c>
+      <c r="E123" s="67"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="68">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>993271</v>
+        <v>993365</v>
       </c>
       <c r="C124" s="45">
-        <v>126774</v>
+        <v>126804</v>
       </c>
       <c r="D124" s="45">
-        <v>1120045</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="69">
+        <v>1120169</v>
+      </c>
+      <c r="E124" s="67"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="70">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>808134</v>
+        <v>808147</v>
       </c>
       <c r="C125" s="46">
-        <v>131615</v>
+        <v>131622</v>
       </c>
       <c r="D125" s="46">
-        <v>939749</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>939769</v>
+      </c>
+      <c r="E125" s="67"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="68">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>661917</v>
+        <v>662030</v>
       </c>
       <c r="C126" s="45">
-        <v>137257</v>
+        <v>137342</v>
       </c>
       <c r="D126" s="45">
-        <v>799174</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="69">
+        <v>799372</v>
+      </c>
+      <c r="E126" s="67"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="70">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>259029</v>
+        <v>259035</v>
       </c>
       <c r="C127" s="46">
-        <v>75937</v>
+        <v>76008</v>
       </c>
       <c r="D127" s="46">
-        <v>334966</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>335043</v>
+      </c>
+      <c r="E127" s="67"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="68">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>195298</v>
+        <v>195307</v>
       </c>
       <c r="C128" s="45">
-        <v>67772</v>
+        <v>67775</v>
       </c>
       <c r="D128" s="45">
-        <v>263070</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="69">
+        <v>263082</v>
+      </c>
+      <c r="E128" s="67"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="70">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>332910</v>
+        <v>333337</v>
       </c>
       <c r="C129" s="46">
-        <v>115571</v>
+        <v>115601</v>
       </c>
       <c r="D129" s="46">
-        <v>448481</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>448938</v>
+      </c>
+      <c r="E129" s="67"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="68">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>677344</v>
+        <v>677647</v>
       </c>
       <c r="C130" s="45">
-        <v>160524</v>
+        <v>161161</v>
       </c>
       <c r="D130" s="45">
-        <v>837868</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="69">
+        <v>838808</v>
+      </c>
+      <c r="E130" s="67"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="70">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>907222</v>
+        <v>907540</v>
       </c>
       <c r="C131" s="46">
-        <v>224031</v>
+        <v>225613</v>
       </c>
       <c r="D131" s="46">
-        <v>1131253</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1133153</v>
+      </c>
+      <c r="E131" s="67"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="68">
         <v>44322</v>
       </c>
       <c r="B132" s="45">
-        <v>759741</v>
+        <v>759940</v>
       </c>
       <c r="C132" s="45">
-        <v>215350</v>
+        <v>215784</v>
       </c>
       <c r="D132" s="45">
-        <v>975091</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="69">
+        <v>975724</v>
+      </c>
+      <c r="E132" s="67"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="70">
         <v>44323</v>
       </c>
       <c r="B133" s="46">
-        <v>644273</v>
+        <v>644449</v>
       </c>
       <c r="C133" s="46">
-        <v>225372</v>
+        <v>226424</v>
       </c>
       <c r="D133" s="46">
-        <v>869645</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>870873</v>
+      </c>
+      <c r="E133" s="67"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="68">
         <v>44324</v>
       </c>
       <c r="B134" s="45">
-        <v>268088</v>
+        <v>268384</v>
       </c>
       <c r="C134" s="45">
-        <v>150729</v>
+        <v>151534</v>
       </c>
       <c r="D134" s="45">
-        <v>418817</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="69">
+        <v>419918</v>
+      </c>
+      <c r="E134" s="67"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="70">
         <v>44325</v>
       </c>
       <c r="B135" s="46">
-        <v>181117</v>
+        <v>181115</v>
       </c>
       <c r="C135" s="46">
         <v>101412</v>
       </c>
       <c r="D135" s="46">
-        <v>282529</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>282527</v>
+      </c>
+      <c r="E135" s="67"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="68">
         <v>44326</v>
       </c>
       <c r="B136" s="45">
-        <v>389858</v>
+        <v>390117</v>
       </c>
       <c r="C136" s="45">
-        <v>188714</v>
+        <v>189499</v>
       </c>
       <c r="D136" s="45">
-        <v>578572</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="69">
+        <v>579616</v>
+      </c>
+      <c r="E136" s="67"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="70">
         <v>44327</v>
       </c>
       <c r="B137" s="46">
-        <v>791635</v>
+        <v>792433</v>
       </c>
       <c r="C137" s="46">
-        <v>277559</v>
+        <v>281226</v>
       </c>
       <c r="D137" s="46">
-        <v>1069194</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1073659</v>
+      </c>
+      <c r="E137" s="67"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="68">
         <v>44328</v>
       </c>
       <c r="B138" s="45">
-        <v>1036574</v>
+        <v>1038812</v>
       </c>
       <c r="C138" s="45">
-        <v>347757</v>
+        <v>355697</v>
       </c>
       <c r="D138" s="45">
-        <v>1384331</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="69">
+        <v>1394509</v>
+      </c>
+      <c r="E138" s="67"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="70">
         <v>44329</v>
       </c>
       <c r="B139" s="46">
-        <v>262940</v>
+        <v>263838</v>
       </c>
       <c r="C139" s="46">
-        <v>150914</v>
+        <v>154885</v>
       </c>
       <c r="D139" s="46">
-        <v>413854</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>418723</v>
+      </c>
+      <c r="E139" s="67"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="68">
         <v>44330</v>
       </c>
       <c r="B140" s="45">
-        <v>515820</v>
+        <v>517565</v>
       </c>
       <c r="C140" s="45">
-        <v>217543</v>
+        <v>220284</v>
       </c>
       <c r="D140" s="45">
-        <v>733363</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="69">
+        <v>737849</v>
+      </c>
+      <c r="E140" s="67"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="70">
         <v>44331</v>
       </c>
       <c r="B141" s="46">
-        <v>225943</v>
+        <v>228739</v>
       </c>
       <c r="C141" s="46">
-        <v>151192</v>
+        <v>156781</v>
       </c>
       <c r="D141" s="46">
-        <v>377135</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>385520</v>
+      </c>
+      <c r="E141" s="67"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="68">
         <v>44332</v>
       </c>
       <c r="B142" s="45">
-        <v>155602</v>
+        <v>156794</v>
       </c>
       <c r="C142" s="45">
-        <v>113148</v>
+        <v>114736</v>
       </c>
       <c r="D142" s="45">
-        <v>268750</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="69"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="46"/>
-      <c r="D143" s="46"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="68" t="s">
+        <v>271530</v>
+      </c>
+      <c r="E142" s="67"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="70">
+        <v>44333</v>
+      </c>
+      <c r="B143" s="46">
+        <v>338137</v>
+      </c>
+      <c r="C143" s="46">
+        <v>184804</v>
+      </c>
+      <c r="D143" s="46">
+        <v>522941</v>
+      </c>
+      <c r="E143" s="67"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="70"/>
+      <c r="B144" s="46"/>
+      <c r="C144" s="46"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="67"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B144" s="45">
-        <v>30743232</v>
-      </c>
-      <c r="C144" s="45">
-        <v>9332160</v>
-      </c>
-      <c r="D144" s="45">
-        <v>40075392</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="71"/>
-      <c r="B145" s="71"/>
-      <c r="C145" s="71"/>
-      <c r="D145" s="71"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="71" t="s">
+      <c r="B145" s="45">
+        <v>31094584</v>
+      </c>
+      <c r="C145" s="45">
+        <v>9548021</v>
+      </c>
+      <c r="D145" s="45">
+        <v>40642605</v>
+      </c>
+      <c r="E145" s="67"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="67"/>
+      <c r="B146" s="67"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="67"/>
+      <c r="E146" s="67"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B147" s="67"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="67"/>
+      <c r="E147" s="67"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="67"/>
+      <c r="B148" s="67"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="67"/>
+      <c r="E148" s="67"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B146" s="71"/>
-      <c r="C146" s="71"/>
-      <c r="D146" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
